--- a/data/trans_orig/P1418-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P1418-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A11F6726-BD26-411D-91BD-E40A30DC09B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D3C2D7CB-67EB-4E60-816E-F99E8D96F4B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{CC8A6CB0-D343-4641-8888-9ED4460F579E}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{88357DFF-207E-46B7-924E-81D9F728D821}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="460">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="462">
   <si>
     <t>Población con diagnóstico de mala circulación en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -95,1327 +95,1333 @@
     <t>2,68%</t>
   </si>
   <si>
-    <t>0,83%</t>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>18,25%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>97,32%</t>
+  </si>
+  <si>
+    <t>93,54%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>88,5%</t>
+  </si>
+  <si>
+    <t>81,75%</t>
+  </si>
+  <si>
+    <t>93,41%</t>
+  </si>
+  <si>
+    <t>92,96%</t>
+  </si>
+  <si>
+    <t>89,13%</t>
+  </si>
+  <si>
+    <t>95,89%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>94,24%</t>
+  </si>
+  <si>
+    <t>92,14%</t>
+  </si>
+  <si>
+    <t>95,91%</t>
+  </si>
+  <si>
+    <t>92,01%</t>
+  </si>
+  <si>
+    <t>89,83%</t>
+  </si>
+  <si>
+    <t>94,06%</t>
+  </si>
+  <si>
+    <t>93,13%</t>
+  </si>
+  <si>
+    <t>91,47%</t>
+  </si>
+  <si>
+    <t>94,4%</t>
+  </si>
+  <si>
+    <t>10/50</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
   </si>
   <si>
     <t>7,28%</t>
   </si>
   <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>18,06%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>97,32%</t>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>94,36%</t>
   </si>
   <si>
     <t>92,72%</t>
   </si>
   <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>88,5%</t>
-  </si>
-  <si>
-    <t>81,94%</t>
-  </si>
-  <si>
-    <t>93,4%</t>
-  </si>
-  <si>
-    <t>92,96%</t>
-  </si>
-  <si>
-    <t>88,85%</t>
-  </si>
-  <si>
-    <t>95,78%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
+    <t>95,66%</t>
+  </si>
+  <si>
+    <t>90,34%</t>
+  </si>
+  <si>
+    <t>88,15%</t>
+  </si>
+  <si>
+    <t>92,11%</t>
+  </si>
+  <si>
+    <t>92,34%</t>
+  </si>
+  <si>
+    <t>90,95%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>13,78%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>94,81%</t>
+  </si>
+  <si>
+    <t>92,68%</t>
+  </si>
+  <si>
+    <t>96,34%</t>
+  </si>
+  <si>
+    <t>88,63%</t>
+  </si>
+  <si>
+    <t>86,22%</t>
+  </si>
+  <si>
+    <t>91,0%</t>
+  </si>
+  <si>
+    <t>91,71%</t>
+  </si>
+  <si>
+    <t>90,03%</t>
+  </si>
+  <si>
+    <t>93,1%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>13,07%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>92,78%</t>
+  </si>
+  <si>
+    <t>95,62%</t>
+  </si>
+  <si>
+    <t>86,93%</t>
+  </si>
+  <si>
+    <t>90,92%</t>
+  </si>
+  <si>
+    <t>91,62%</t>
+  </si>
+  <si>
+    <t>90,19%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>94,53%</t>
+  </si>
+  <si>
+    <t>93,7%</t>
+  </si>
+  <si>
+    <t>95,22%</t>
+  </si>
+  <si>
+    <t>89,85%</t>
+  </si>
+  <si>
+    <t>88,73%</t>
+  </si>
+  <si>
+    <t>90,8%</t>
+  </si>
+  <si>
+    <t>92,15%</t>
+  </si>
+  <si>
+    <t>91,52%</t>
+  </si>
+  <si>
+    <t>92,85%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de mala circulación en 2012 (Tasa respuesta: 99,95%)</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>19,67%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>11,91%</t>
+  </si>
+  <si>
+    <t>97,09%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>87,75%</t>
+  </si>
+  <si>
+    <t>80,33%</t>
+  </si>
+  <si>
+    <t>93,26%</t>
+  </si>
+  <si>
+    <t>92,5%</t>
+  </si>
+  <si>
+    <t>88,09%</t>
+  </si>
+  <si>
+    <t>95,44%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>96,97%</t>
+  </si>
+  <si>
+    <t>95,25%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
+  </si>
+  <si>
+    <t>90,38%</t>
+  </si>
+  <si>
+    <t>87,64%</t>
+  </si>
+  <si>
+    <t>92,57%</t>
+  </si>
+  <si>
+    <t>93,68%</t>
+  </si>
+  <si>
+    <t>92,24%</t>
+  </si>
+  <si>
+    <t>95,03%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>12,16%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>96,32%</t>
+  </si>
+  <si>
+    <t>94,93%</t>
+  </si>
+  <si>
+    <t>97,35%</t>
+  </si>
+  <si>
+    <t>89,77%</t>
+  </si>
+  <si>
+    <t>87,84%</t>
+  </si>
+  <si>
+    <t>91,63%</t>
+  </si>
+  <si>
+    <t>93,03%</t>
+  </si>
+  <si>
+    <t>91,79%</t>
+  </si>
+  <si>
+    <t>94,07%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>96,84%</t>
+  </si>
+  <si>
+    <t>94,89%</t>
+  </si>
+  <si>
+    <t>98,06%</t>
+  </si>
+  <si>
+    <t>92,22%</t>
+  </si>
+  <si>
+    <t>90,11%</t>
+  </si>
+  <si>
+    <t>94,01%</t>
+  </si>
+  <si>
+    <t>94,5%</t>
+  </si>
+  <si>
+    <t>95,58%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>97,44%</t>
+  </si>
+  <si>
+    <t>96,14%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
+  </si>
+  <si>
+    <t>89,52%</t>
+  </si>
+  <si>
+    <t>87,41%</t>
+  </si>
+  <si>
+    <t>91,15%</t>
+  </si>
+  <si>
+    <t>93,28%</t>
+  </si>
+  <si>
+    <t>92,07%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>96,88%</t>
+  </si>
+  <si>
+    <t>96,16%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
+  </si>
+  <si>
+    <t>90,27%</t>
+  </si>
+  <si>
+    <t>88,99%</t>
+  </si>
+  <si>
+    <t>91,17%</t>
+  </si>
+  <si>
+    <t>93,51%</t>
+  </si>
+  <si>
+    <t>92,89%</t>
+  </si>
+  <si>
+    <t>94,08%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de mala circulación en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>93,93%</t>
+  </si>
+  <si>
+    <t>88,6%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>93,74%</t>
+  </si>
+  <si>
+    <t>87,48%</t>
+  </si>
+  <si>
+    <t>97,28%</t>
+  </si>
+  <si>
+    <t>93,83%</t>
+  </si>
+  <si>
+    <t>90,42%</t>
+  </si>
+  <si>
+    <t>96,55%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>97,17%</t>
+  </si>
+  <si>
+    <t>95,49%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>91,88%</t>
+  </si>
+  <si>
+    <t>89,47%</t>
+  </si>
+  <si>
+    <t>94,14%</t>
+  </si>
+  <si>
+    <t>94,52%</t>
+  </si>
+  <si>
+    <t>93,14%</t>
+  </si>
+  <si>
+    <t>95,81%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>97,6%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>93,72%</t>
+  </si>
+  <si>
+    <t>92,08%</t>
+  </si>
+  <si>
+    <t>95,13%</t>
+  </si>
+  <si>
+    <t>95,64%</t>
+  </si>
+  <si>
+    <t>94,67%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
+  </si>
+  <si>
+    <t>96,4%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>92,46%</t>
+  </si>
+  <si>
+    <t>90,33%</t>
+  </si>
+  <si>
+    <t>94,43%</t>
+  </si>
+  <si>
+    <t>95,04%</t>
+  </si>
+  <si>
+    <t>93,82%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>98,21%</t>
+  </si>
+  <si>
+    <t>97,02%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>90,9%</t>
+  </si>
+  <si>
+    <t>94,38%</t>
+  </si>
+  <si>
+    <t>95,32%</t>
+  </si>
+  <si>
+    <t>94,22%</t>
+  </si>
+  <si>
+    <t>96,21%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>97,59%</t>
+  </si>
+  <si>
+    <t>97,07%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>92,86%</t>
+  </si>
+  <si>
+    <t>91,84%</t>
+  </si>
+  <si>
+    <t>93,73%</t>
+  </si>
+  <si>
+    <t>95,17%</t>
+  </si>
+  <si>
+    <t>94,57%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de mala circulación en 2023 (Tasa respuesta: 99,81%)</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>15,28%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>93,79%</t>
+  </si>
+  <si>
+    <t>84,72%</t>
+  </si>
+  <si>
+    <t>92,44%</t>
+  </si>
+  <si>
+    <t>92,75%</t>
+  </si>
+  <si>
+    <t>89,89%</t>
+  </si>
+  <si>
+    <t>94,78%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>18,83%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>94,79%</t>
+  </si>
+  <si>
+    <t>92,76%</t>
+  </si>
+  <si>
+    <t>96,2%</t>
+  </si>
+  <si>
+    <t>86,86%</t>
+  </si>
+  <si>
+    <t>73,37%</t>
+  </si>
+  <si>
+    <t>91,36%</t>
+  </si>
+  <si>
+    <t>90,59%</t>
+  </si>
+  <si>
+    <t>82,62%</t>
+  </si>
+  <si>
+    <t>92,99%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>96,17%</t>
+  </si>
+  <si>
+    <t>97,2%</t>
+  </si>
+  <si>
+    <t>91,41%</t>
+  </si>
+  <si>
+    <t>89,99%</t>
+  </si>
+  <si>
+    <t>92,67%</t>
+  </si>
+  <si>
+    <t>93,76%</t>
+  </si>
+  <si>
+    <t>92,81%</t>
+  </si>
+  <si>
+    <t>94,65%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
   </si>
   <si>
     <t>6,02%</t>
   </si>
   <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>94,24%</t>
-  </si>
-  <si>
-    <t>91,93%</t>
-  </si>
-  <si>
-    <t>95,88%</t>
-  </si>
-  <si>
-    <t>92,01%</t>
-  </si>
-  <si>
-    <t>89,63%</t>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>95,45%</t>
+  </si>
+  <si>
+    <t>93,63%</t>
+  </si>
+  <si>
+    <t>96,76%</t>
+  </si>
+  <si>
+    <t>90,81%</t>
+  </si>
+  <si>
+    <t>95,16%</t>
   </si>
   <si>
     <t>93,98%</t>
   </si>
   <si>
-    <t>93,13%</t>
-  </si>
-  <si>
-    <t>91,5%</t>
-  </si>
-  <si>
-    <t>94,29%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>94,36%</t>
-  </si>
-  <si>
-    <t>92,65%</t>
-  </si>
-  <si>
-    <t>95,65%</t>
-  </si>
-  <si>
-    <t>90,34%</t>
-  </si>
-  <si>
-    <t>88,13%</t>
-  </si>
-  <si>
-    <t>92,15%</t>
-  </si>
-  <si>
-    <t>92,34%</t>
-  </si>
-  <si>
-    <t>90,95%</t>
-  </si>
-  <si>
-    <t>93,45%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>14,15%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>94,81%</t>
-  </si>
-  <si>
-    <t>92,81%</t>
-  </si>
-  <si>
-    <t>96,34%</t>
-  </si>
-  <si>
-    <t>88,63%</t>
-  </si>
-  <si>
-    <t>85,85%</t>
-  </si>
-  <si>
-    <t>90,71%</t>
-  </si>
-  <si>
-    <t>91,71%</t>
-  </si>
-  <si>
-    <t>89,98%</t>
-  </si>
-  <si>
-    <t>93,16%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>13,11%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>92,94%</t>
-  </si>
-  <si>
-    <t>95,73%</t>
-  </si>
-  <si>
-    <t>89,13%</t>
-  </si>
-  <si>
-    <t>86,89%</t>
-  </si>
-  <si>
-    <t>90,77%</t>
-  </si>
-  <si>
-    <t>91,62%</t>
-  </si>
-  <si>
-    <t>90,35%</t>
-  </si>
-  <si>
-    <t>92,76%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>94,53%</t>
-  </si>
-  <si>
-    <t>93,69%</t>
-  </si>
-  <si>
-    <t>95,24%</t>
-  </si>
-  <si>
-    <t>89,85%</t>
-  </si>
-  <si>
-    <t>88,79%</t>
-  </si>
-  <si>
-    <t>90,84%</t>
-  </si>
-  <si>
-    <t>91,51%</t>
-  </si>
-  <si>
-    <t>92,86%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de mala circulación en 2012 (Tasa respuesta: 99,95%)</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>20,22%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>97,09%</t>
-  </si>
-  <si>
-    <t>92,33%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>87,75%</t>
-  </si>
-  <si>
-    <t>79,78%</t>
-  </si>
-  <si>
-    <t>93,12%</t>
-  </si>
-  <si>
-    <t>92,5%</t>
-  </si>
-  <si>
-    <t>88,21%</t>
-  </si>
-  <si>
-    <t>95,67%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>96,97%</t>
-  </si>
-  <si>
-    <t>95,31%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
-  </si>
-  <si>
-    <t>90,38%</t>
-  </si>
-  <si>
-    <t>87,79%</t>
-  </si>
-  <si>
-    <t>92,57%</t>
-  </si>
-  <si>
-    <t>93,68%</t>
-  </si>
-  <si>
-    <t>91,98%</t>
-  </si>
-  <si>
-    <t>95,07%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>96,32%</t>
-  </si>
-  <si>
-    <t>95,0%</t>
-  </si>
-  <si>
-    <t>97,42%</t>
-  </si>
-  <si>
-    <t>89,77%</t>
-  </si>
-  <si>
-    <t>87,82%</t>
+    <t>92,77%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>95,5%</t>
+  </si>
+  <si>
+    <t>93,85%</t>
+  </si>
+  <si>
+    <t>96,59%</t>
+  </si>
+  <si>
+    <t>89,9%</t>
+  </si>
+  <si>
+    <t>87,6%</t>
+  </si>
+  <si>
+    <t>91,42%</t>
+  </si>
+  <si>
+    <t>92,45%</t>
+  </si>
+  <si>
+    <t>90,79%</t>
+  </si>
+  <si>
+    <t>93,38%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>94,88%</t>
+  </si>
+  <si>
+    <t>96,27%</t>
+  </si>
+  <si>
+    <t>90,44%</t>
+  </si>
+  <si>
+    <t>88,2%</t>
   </si>
   <si>
     <t>91,61%</t>
   </si>
   <si>
-    <t>93,03%</t>
-  </si>
-  <si>
-    <t>94,09%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>96,84%</t>
-  </si>
-  <si>
-    <t>94,98%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>92,22%</t>
-  </si>
-  <si>
-    <t>90,19%</t>
-  </si>
-  <si>
-    <t>94,19%</t>
-  </si>
-  <si>
-    <t>94,5%</t>
-  </si>
-  <si>
-    <t>93,17%</t>
-  </si>
-  <si>
-    <t>95,57%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>97,44%</t>
-  </si>
-  <si>
-    <t>96,19%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>89,52%</t>
-  </si>
-  <si>
-    <t>87,73%</t>
-  </si>
-  <si>
-    <t>91,25%</t>
-  </si>
-  <si>
-    <t>93,28%</t>
-  </si>
-  <si>
-    <t>92,03%</t>
-  </si>
-  <si>
-    <t>94,33%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>96,88%</t>
-  </si>
-  <si>
-    <t>96,22%</t>
-  </si>
-  <si>
-    <t>97,49%</t>
-  </si>
-  <si>
-    <t>90,27%</t>
-  </si>
-  <si>
-    <t>89,22%</t>
-  </si>
-  <si>
-    <t>91,2%</t>
-  </si>
-  <si>
-    <t>93,51%</t>
-  </si>
-  <si>
     <t>92,88%</t>
   </si>
   <si>
-    <t>Población con diagnóstico de mala circulación en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>11,91%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>93,93%</t>
-  </si>
-  <si>
-    <t>88,09%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>93,74%</t>
-  </si>
-  <si>
-    <t>87,28%</t>
-  </si>
-  <si>
-    <t>97,13%</t>
-  </si>
-  <si>
-    <t>93,83%</t>
-  </si>
-  <si>
-    <t>90,01%</t>
-  </si>
-  <si>
-    <t>96,63%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>10,75%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>97,17%</t>
-  </si>
-  <si>
-    <t>95,58%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
-  </si>
-  <si>
-    <t>91,88%</t>
-  </si>
-  <si>
-    <t>89,25%</t>
-  </si>
-  <si>
-    <t>94,52%</t>
-  </si>
-  <si>
-    <t>92,89%</t>
-  </si>
-  <si>
-    <t>95,72%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>97,6%</t>
-  </si>
-  <si>
-    <t>96,46%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>93,72%</t>
-  </si>
-  <si>
-    <t>92,14%</t>
-  </si>
-  <si>
-    <t>95,29%</t>
-  </si>
-  <si>
-    <t>95,64%</t>
-  </si>
-  <si>
-    <t>94,66%</t>
-  </si>
-  <si>
-    <t>96,49%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>97,7%</t>
-  </si>
-  <si>
-    <t>96,31%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>92,46%</t>
-  </si>
-  <si>
-    <t>90,14%</t>
-  </si>
-  <si>
-    <t>95,04%</t>
-  </si>
-  <si>
-    <t>93,79%</t>
-  </si>
-  <si>
-    <t>96,18%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
-  </si>
-  <si>
-    <t>97,05%</t>
-  </si>
-  <si>
-    <t>98,91%</t>
-  </si>
-  <si>
-    <t>90,93%</t>
-  </si>
-  <si>
-    <t>94,22%</t>
-  </si>
-  <si>
-    <t>95,32%</t>
-  </si>
-  <si>
-    <t>94,32%</t>
-  </si>
-  <si>
-    <t>96,28%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>97,59%</t>
-  </si>
-  <si>
-    <t>97,0%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>91,94%</t>
-  </si>
-  <si>
-    <t>95,17%</t>
-  </si>
-  <si>
-    <t>94,61%</t>
-  </si>
-  <si>
-    <t>95,76%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de mala circulación en 2023 (Tasa respuesta: 99,81%)</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>15,55%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>97,54%</t>
-  </si>
-  <si>
-    <t>93,66%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>88,99%</t>
-  </si>
-  <si>
-    <t>84,45%</t>
-  </si>
-  <si>
-    <t>92,61%</t>
-  </si>
-  <si>
-    <t>92,75%</t>
-  </si>
-  <si>
-    <t>90,16%</t>
-  </si>
-  <si>
-    <t>94,89%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>18,69%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>94,79%</t>
-  </si>
-  <si>
-    <t>92,73%</t>
-  </si>
-  <si>
-    <t>86,86%</t>
-  </si>
-  <si>
-    <t>73,65%</t>
-  </si>
-  <si>
-    <t>91,45%</t>
-  </si>
-  <si>
-    <t>90,59%</t>
-  </si>
-  <si>
-    <t>84,02%</t>
-  </si>
-  <si>
-    <t>93,04%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>96,17%</t>
-  </si>
-  <si>
-    <t>94,87%</t>
-  </si>
-  <si>
-    <t>91,41%</t>
-  </si>
-  <si>
-    <t>89,99%</t>
-  </si>
-  <si>
-    <t>92,67%</t>
-  </si>
-  <si>
-    <t>93,76%</t>
-  </si>
-  <si>
-    <t>94,67%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>95,45%</t>
-  </si>
-  <si>
-    <t>93,57%</t>
-  </si>
-  <si>
-    <t>96,73%</t>
-  </si>
-  <si>
-    <t>90,86%</t>
-  </si>
-  <si>
-    <t>95,25%</t>
-  </si>
-  <si>
-    <t>92,55%</t>
-  </si>
-  <si>
-    <t>95,35%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>95,5%</t>
-  </si>
-  <si>
-    <t>93,86%</t>
-  </si>
-  <si>
-    <t>89,9%</t>
-  </si>
-  <si>
-    <t>87,65%</t>
-  </si>
-  <si>
-    <t>92,45%</t>
-  </si>
-  <si>
-    <t>91,04%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>94,96%</t>
-  </si>
-  <si>
-    <t>96,29%</t>
-  </si>
-  <si>
-    <t>90,44%</t>
-  </si>
-  <si>
-    <t>88,16%</t>
-  </si>
-  <si>
-    <t>91,53%</t>
-  </si>
-  <si>
-    <t>91,67%</t>
+    <t>91,56%</t>
   </si>
   <si>
     <t>93,58%</t>
@@ -1830,7 +1836,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D32CA3CE-D39E-4D88-83C7-16A5E8913F1F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F1AD72C-A664-42EF-BA84-CC253654726F}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2008,10 +2014,10 @@
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>18</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>19</v>
       </c>
       <c r="H5" s="7">
         <v>14</v>
@@ -2020,13 +2026,13 @@
         <v>12972</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>21</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>22</v>
       </c>
       <c r="M5" s="7">
         <v>17</v>
@@ -2035,19 +2041,19 @@
         <v>16059</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>24</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C6" s="7">
         <v>102</v>
@@ -2056,13 +2062,13 @@
         <v>112271</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>28</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>29</v>
       </c>
       <c r="H6" s="7">
         <v>114</v>
@@ -2071,13 +2077,13 @@
         <v>99783</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>31</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>32</v>
       </c>
       <c r="M6" s="7">
         <v>216</v>
@@ -2086,13 +2092,13 @@
         <v>212054</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>34</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2107,13 +2113,13 @@
         <v>115358</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H7" s="7">
         <v>128</v>
@@ -2122,13 +2128,13 @@
         <v>112755</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M7" s="7">
         <v>233</v>
@@ -2137,18 +2143,18 @@
         <v>228113</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -2166,7 +2172,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -2181,7 +2187,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -2196,7 +2202,7 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2211,13 +2217,13 @@
         <v>33354</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="H9" s="7">
         <v>45</v>
@@ -2226,13 +2232,13 @@
         <v>45994</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="M9" s="7">
         <v>79</v>
@@ -2241,19 +2247,19 @@
         <v>79347</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>48</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" s="7">
         <v>544</v>
@@ -2262,13 +2268,13 @@
         <v>545300</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>52</v>
       </c>
       <c r="H10" s="7">
         <v>523</v>
@@ -2277,13 +2283,13 @@
         <v>529602</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>55</v>
       </c>
       <c r="M10" s="7">
         <v>1067</v>
@@ -2292,13 +2298,13 @@
         <v>1074903</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2313,13 +2319,13 @@
         <v>578654</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H11" s="7">
         <v>568</v>
@@ -2328,13 +2334,13 @@
         <v>575596</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M11" s="7">
         <v>1146</v>
@@ -2343,18 +2349,18 @@
         <v>1154250</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -2372,7 +2378,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -2387,7 +2393,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -2402,7 +2408,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2417,13 +2423,13 @@
         <v>54273</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>64</v>
       </c>
       <c r="H13" s="7">
         <v>86</v>
@@ -2432,13 +2438,13 @@
         <v>93523</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>67</v>
       </c>
       <c r="M13" s="7">
         <v>139</v>
@@ -2447,19 +2453,19 @@
         <v>147796</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C14" s="7">
         <v>843</v>
@@ -2468,13 +2474,13 @@
         <v>907527</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="H14" s="7">
         <v>822</v>
@@ -2483,13 +2489,13 @@
         <v>874870</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>76</v>
       </c>
       <c r="M14" s="7">
         <v>1665</v>
@@ -2498,13 +2504,13 @@
         <v>1782397</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>79</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2519,13 +2525,13 @@
         <v>961800</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H15" s="7">
         <v>908</v>
@@ -2534,13 +2540,13 @@
         <v>968393</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M15" s="7">
         <v>1804</v>
@@ -2549,18 +2555,18 @@
         <v>1930193</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2578,7 +2584,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -2593,7 +2599,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -2608,7 +2614,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2623,13 +2629,13 @@
         <v>35242</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="H17" s="7">
         <v>78</v>
@@ -2638,13 +2644,13 @@
         <v>77734</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="M17" s="7">
         <v>112</v>
@@ -2653,19 +2659,19 @@
         <v>112976</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C18" s="7">
         <v>607</v>
@@ -2674,13 +2680,13 @@
         <v>643267</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="H18" s="7">
         <v>618</v>
@@ -2689,13 +2695,13 @@
         <v>606107</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="M18" s="7">
         <v>1225</v>
@@ -2704,13 +2710,13 @@
         <v>1249374</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2725,13 +2731,13 @@
         <v>678509</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H19" s="7">
         <v>696</v>
@@ -2740,13 +2746,13 @@
         <v>683841</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M19" s="7">
         <v>1337</v>
@@ -2755,18 +2761,18 @@
         <v>1362350</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -2784,7 +2790,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -2799,7 +2805,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -2814,7 +2820,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2829,13 +2835,13 @@
         <v>53127</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="H21" s="7">
         <v>108</v>
@@ -2844,13 +2850,13 @@
         <v>112929</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>107</v>
+        <v>24</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="M21" s="7">
         <v>167</v>
@@ -2859,19 +2865,19 @@
         <v>166057</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C22" s="7">
         <v>935</v>
@@ -2880,13 +2886,13 @@
         <v>889095</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="H22" s="7">
         <v>889</v>
@@ -2895,13 +2901,13 @@
         <v>925683</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>115</v>
+        <v>33</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="M22" s="7">
         <v>1824</v>
@@ -2910,13 +2916,13 @@
         <v>1814777</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2931,13 +2937,13 @@
         <v>942222</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H23" s="7">
         <v>997</v>
@@ -2946,13 +2952,13 @@
         <v>1038612</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M23" s="7">
         <v>1991</v>
@@ -2961,13 +2967,13 @@
         <v>1980834</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2990,7 +2996,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -3005,7 +3011,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -3020,7 +3026,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3035,13 +3041,13 @@
         <v>179083</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="H25" s="7">
         <v>331</v>
@@ -3050,13 +3056,13 @@
         <v>343152</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="M25" s="7">
         <v>514</v>
@@ -3065,19 +3071,19 @@
         <v>522235</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>66</v>
+        <v>122</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C26" s="7">
         <v>3031</v>
@@ -3086,13 +3092,13 @@
         <v>3097461</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="H26" s="7">
         <v>2966</v>
@@ -3101,28 +3107,28 @@
         <v>3036046</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="M26" s="7">
         <v>5997</v>
       </c>
       <c r="N26" s="7">
-        <v>6133505</v>
+        <v>6133506</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>76</v>
+        <v>131</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3137,13 +3143,13 @@
         <v>3276544</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H27" s="7">
         <v>3297</v>
@@ -3152,33 +3158,33 @@
         <v>3379198</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M27" s="7">
         <v>6511</v>
       </c>
       <c r="N27" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -3199,7 +3205,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26F96F91-C248-4C72-B6CD-C9B72D088319}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B54B8858-6E51-437F-AE9A-ECCFFE5A8D67}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3216,7 +3222,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3329,7 +3335,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -3344,7 +3350,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -3359,7 +3365,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3374,13 +3380,13 @@
         <v>3368</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>146</v>
+        <v>67</v>
       </c>
       <c r="H5" s="7">
         <v>12</v>
@@ -3389,13 +3395,13 @@
         <v>13710</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="M5" s="7">
         <v>16</v>
@@ -3404,19 +3410,19 @@
         <v>17078</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C6" s="7">
         <v>118</v>
@@ -3425,13 +3431,13 @@
         <v>112397</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>154</v>
+        <v>75</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="H6" s="7">
         <v>87</v>
@@ -3440,13 +3446,13 @@
         <v>98195</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="M6" s="7">
         <v>205</v>
@@ -3455,13 +3461,13 @@
         <v>210592</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3476,13 +3482,13 @@
         <v>115765</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H7" s="7">
         <v>99</v>
@@ -3491,13 +3497,13 @@
         <v>111905</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M7" s="7">
         <v>221</v>
@@ -3506,18 +3512,18 @@
         <v>227670</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -3535,7 +3541,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -3550,7 +3556,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -3565,7 +3571,7 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3580,13 +3586,13 @@
         <v>17827</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="H9" s="7">
         <v>51</v>
@@ -3595,13 +3601,13 @@
         <v>56270</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="M9" s="7">
         <v>68</v>
@@ -3610,19 +3616,19 @@
         <v>74097</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" s="7">
         <v>535</v>
@@ -3631,13 +3637,13 @@
         <v>569877</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="H10" s="7">
         <v>500</v>
@@ -3646,13 +3652,13 @@
         <v>528875</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="M10" s="7">
         <v>1035</v>
@@ -3661,13 +3667,13 @@
         <v>1098752</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3682,13 +3688,13 @@
         <v>587704</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H11" s="7">
         <v>551</v>
@@ -3697,13 +3703,13 @@
         <v>585145</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M11" s="7">
         <v>1103</v>
@@ -3712,18 +3718,18 @@
         <v>1172849</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -3741,7 +3747,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -3756,7 +3762,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -3771,7 +3777,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3786,13 +3792,13 @@
         <v>37462</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="H13" s="7">
         <v>96</v>
@@ -3801,13 +3807,13 @@
         <v>105279</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="M13" s="7">
         <v>131</v>
@@ -3816,19 +3822,19 @@
         <v>142741</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>90</v>
+        <v>183</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C14" s="7">
         <v>901</v>
@@ -3837,13 +3843,13 @@
         <v>980485</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="H14" s="7">
         <v>842</v>
@@ -3852,13 +3858,13 @@
         <v>923694</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="M14" s="7">
         <v>1743</v>
@@ -3867,13 +3873,13 @@
         <v>1904179</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>99</v>
+        <v>191</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3888,13 +3894,13 @@
         <v>1017947</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H15" s="7">
         <v>938</v>
@@ -3903,13 +3909,13 @@
         <v>1028973</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M15" s="7">
         <v>1874</v>
@@ -3918,18 +3924,18 @@
         <v>2046920</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3947,7 +3953,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -3962,7 +3968,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -3977,7 +3983,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3992,13 +3998,13 @@
         <v>23964</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>13</v>
+        <v>195</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="H17" s="7">
         <v>54</v>
@@ -4007,13 +4013,13 @@
         <v>60478</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="M17" s="7">
         <v>73</v>
@@ -4022,19 +4028,19 @@
         <v>84442</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>206</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C18" s="7">
         <v>670</v>
@@ -4043,13 +4049,13 @@
         <v>733659</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="H18" s="7">
         <v>651</v>
@@ -4058,13 +4064,13 @@
         <v>716696</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="M18" s="7">
         <v>1321</v>
@@ -4073,13 +4079,13 @@
         <v>1450355</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>214</v>
+        <v>55</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4094,13 +4100,13 @@
         <v>757623</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H19" s="7">
         <v>705</v>
@@ -4109,13 +4115,13 @@
         <v>777174</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M19" s="7">
         <v>1394</v>
@@ -4124,18 +4130,18 @@
         <v>1534797</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -4153,7 +4159,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -4168,7 +4174,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -4183,7 +4189,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4198,13 +4204,13 @@
         <v>24270</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="H21" s="7">
         <v>105</v>
@@ -4213,13 +4219,13 @@
         <v>110095</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="M21" s="7">
         <v>128</v>
@@ -4228,19 +4234,19 @@
         <v>134366</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>223</v>
+        <v>47</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C22" s="7">
         <v>887</v>
@@ -4249,13 +4255,13 @@
         <v>923469</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="H22" s="7">
         <v>897</v>
@@ -4264,13 +4270,13 @@
         <v>940759</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="M22" s="7">
         <v>1784</v>
@@ -4279,13 +4285,13 @@
         <v>1864228</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>233</v>
+        <v>57</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4300,13 +4306,13 @@
         <v>947739</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H23" s="7">
         <v>1002</v>
@@ -4315,13 +4321,13 @@
         <v>1050854</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M23" s="7">
         <v>1912</v>
@@ -4330,13 +4336,13 @@
         <v>1998594</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4359,7 +4365,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -4374,7 +4380,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -4389,7 +4395,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4404,13 +4410,13 @@
         <v>106891</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="H25" s="7">
         <v>318</v>
@@ -4419,13 +4425,13 @@
         <v>345832</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="M25" s="7">
         <v>416</v>
@@ -4434,19 +4440,19 @@
         <v>452724</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>189</v>
+        <v>233</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C26" s="7">
         <v>3111</v>
@@ -4455,13 +4461,13 @@
         <v>3319888</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="H26" s="7">
         <v>2977</v>
@@ -4470,28 +4476,28 @@
         <v>3208220</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="M26" s="7">
         <v>6088</v>
       </c>
       <c r="N26" s="7">
-        <v>6528106</v>
+        <v>6528107</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>197</v>
+        <v>243</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4506,13 +4512,13 @@
         <v>3426779</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H27" s="7">
         <v>3295</v>
@@ -4521,33 +4527,33 @@
         <v>3554052</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M27" s="7">
         <v>6504</v>
       </c>
       <c r="N27" s="7">
-        <v>6980830</v>
+        <v>6980831</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -4568,7 +4574,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80ED1FB8-FFF2-4C59-8169-A9D4461AE34B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47B13F19-B96A-482E-8B5F-E6E5213AC0A0}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4585,7 +4591,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4698,7 +4704,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -4713,7 +4719,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -4728,7 +4734,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4743,13 +4749,13 @@
         <v>7079</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="H5" s="7">
         <v>7</v>
@@ -4758,13 +4764,13 @@
         <v>7098</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="M5" s="7">
         <v>14</v>
@@ -4773,19 +4779,19 @@
         <v>14177</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C6" s="7">
         <v>106</v>
@@ -4794,13 +4800,13 @@
         <v>109467</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="H6" s="7">
         <v>108</v>
@@ -4809,13 +4815,13 @@
         <v>106262</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="M6" s="7">
         <v>214</v>
@@ -4824,13 +4830,13 @@
         <v>215729</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4845,13 +4851,13 @@
         <v>116546</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H7" s="7">
         <v>115</v>
@@ -4860,13 +4866,13 @@
         <v>113360</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M7" s="7">
         <v>228</v>
@@ -4875,18 +4881,18 @@
         <v>229906</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -4904,7 +4910,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -4919,7 +4925,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -4934,7 +4940,7 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4949,13 +4955,13 @@
         <v>15810</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="H9" s="7">
         <v>42</v>
@@ -4964,13 +4970,13 @@
         <v>45417</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>254</v>
+        <v>272</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="M9" s="7">
         <v>58</v>
@@ -4979,19 +4985,19 @@
         <v>61227</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" s="7">
         <v>523</v>
@@ -5000,13 +5006,13 @@
         <v>542444</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="H10" s="7">
         <v>509</v>
@@ -5015,13 +5021,13 @@
         <v>514062</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>263</v>
+        <v>282</v>
       </c>
       <c r="M10" s="7">
         <v>1032</v>
@@ -5030,13 +5036,13 @@
         <v>1056506</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5051,13 +5057,13 @@
         <v>558254</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H11" s="7">
         <v>551</v>
@@ -5066,13 +5072,13 @@
         <v>559479</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M11" s="7">
         <v>1090</v>
@@ -5081,18 +5087,18 @@
         <v>1117733</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -5110,7 +5116,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -5125,7 +5131,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -5140,7 +5146,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5155,13 +5161,13 @@
         <v>24548</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>141</v>
+        <v>287</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="H13" s="7">
         <v>57</v>
@@ -5170,13 +5176,13 @@
         <v>65470</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="M13" s="7">
         <v>83</v>
@@ -5185,19 +5191,19 @@
         <v>90017</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>296</v>
+        <v>255</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C14" s="7">
         <v>925</v>
@@ -5206,13 +5212,13 @@
         <v>997883</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="H14" s="7">
         <v>920</v>
@@ -5221,13 +5227,13 @@
         <v>977443</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="M14" s="7">
         <v>1845</v>
@@ -5236,13 +5242,13 @@
         <v>1975327</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>306</v>
+        <v>265</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5257,13 +5263,13 @@
         <v>1022431</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H15" s="7">
         <v>977</v>
@@ -5272,13 +5278,13 @@
         <v>1042913</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M15" s="7">
         <v>1928</v>
@@ -5287,18 +5293,18 @@
         <v>2065344</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5316,7 +5322,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -5331,7 +5337,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -5346,7 +5352,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5361,13 +5367,13 @@
         <v>17492</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="H17" s="7">
         <v>49</v>
@@ -5376,13 +5382,13 @@
         <v>59155</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>41</v>
+        <v>308</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="M17" s="7">
         <v>66</v>
@@ -5391,19 +5397,19 @@
         <v>76647</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>315</v>
+        <v>212</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C18" s="7">
         <v>679</v>
@@ -5412,13 +5418,13 @@
         <v>742060</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="H18" s="7">
         <v>687</v>
@@ -5427,13 +5433,13 @@
         <v>725856</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>50</v>
+        <v>317</v>
       </c>
       <c r="M18" s="7">
         <v>1366</v>
@@ -5442,13 +5448,13 @@
         <v>1467916</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>324</v>
+        <v>219</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5463,13 +5469,13 @@
         <v>759552</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H19" s="7">
         <v>736</v>
@@ -5478,13 +5484,13 @@
         <v>785011</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M19" s="7">
         <v>1432</v>
@@ -5493,18 +5499,18 @@
         <v>1544563</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -5522,7 +5528,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -5537,7 +5543,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -5552,7 +5558,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5567,13 +5573,13 @@
         <v>16783</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="H21" s="7">
         <v>66</v>
@@ -5582,13 +5588,13 @@
         <v>75983</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>19</v>
+        <v>63</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="M21" s="7">
         <v>82</v>
@@ -5597,19 +5603,19 @@
         <v>92766</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C22" s="7">
         <v>916</v>
@@ -5618,13 +5624,13 @@
         <v>920784</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="H22" s="7">
         <v>893</v>
@@ -5633,13 +5639,13 @@
         <v>967796</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>28</v>
+        <v>70</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="M22" s="7">
         <v>1809</v>
@@ -5648,13 +5654,13 @@
         <v>1888580</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5669,13 +5675,13 @@
         <v>937567</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H23" s="7">
         <v>959</v>
@@ -5684,13 +5690,13 @@
         <v>1043779</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M23" s="7">
         <v>1891</v>
@@ -5699,13 +5705,13 @@
         <v>1981346</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5728,7 +5734,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -5743,7 +5749,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -5758,7 +5764,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5773,13 +5779,13 @@
         <v>81712</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="H25" s="7">
         <v>221</v>
@@ -5788,13 +5794,13 @@
         <v>253123</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>129</v>
+        <v>339</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>292</v>
+        <v>340</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="M25" s="7">
         <v>303</v>
@@ -5803,19 +5809,19 @@
         <v>334835</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>346</v>
+        <v>62</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C26" s="7">
         <v>3149</v>
@@ -5824,13 +5830,13 @@
         <v>3312638</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="H26" s="7">
         <v>3117</v>
@@ -5839,13 +5845,13 @@
         <v>3291419</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>138</v>
+        <v>347</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>301</v>
+        <v>349</v>
       </c>
       <c r="M26" s="7">
         <v>6266</v>
@@ -5854,13 +5860,13 @@
         <v>6604057</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>354</v>
+        <v>71</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5875,13 +5881,13 @@
         <v>3394350</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H27" s="7">
         <v>3338</v>
@@ -5890,13 +5896,13 @@
         <v>3544542</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M27" s="7">
         <v>6569</v>
@@ -5905,18 +5911,18 @@
         <v>6938892</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -5937,7 +5943,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC074BA4-4F83-4018-8EB3-0DD17DAD696F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE957677-5A9C-438A-9DD9-1F2B01076228}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5954,7 +5960,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6067,7 +6073,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -6082,7 +6088,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -6097,7 +6103,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6112,13 +6118,13 @@
         <v>2506</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>360</v>
+        <v>140</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="H5" s="7">
         <v>32</v>
@@ -6127,13 +6133,13 @@
         <v>14354</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>362</v>
+        <v>231</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="M5" s="7">
         <v>36</v>
@@ -6142,19 +6148,19 @@
         <v>16860</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C6" s="7">
         <v>114</v>
@@ -6163,13 +6169,13 @@
         <v>99476</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>370</v>
+        <v>148</v>
       </c>
       <c r="H6" s="7">
         <v>210</v>
@@ -6178,13 +6184,13 @@
         <v>116056</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>371</v>
+        <v>239</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="M6" s="7">
         <v>324</v>
@@ -6193,13 +6199,13 @@
         <v>215532</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6214,13 +6220,13 @@
         <v>101982</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H7" s="7">
         <v>242</v>
@@ -6229,13 +6235,13 @@
         <v>130410</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M7" s="7">
         <v>360</v>
@@ -6244,18 +6250,18 @@
         <v>232392</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -6273,7 +6279,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="H8" s="7">
         <v>3</v>
@@ -6282,13 +6288,13 @@
         <v>27412</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>276</v>
+        <v>201</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="M8" s="7">
         <v>3</v>
@@ -6297,13 +6303,13 @@
         <v>27412</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>381</v>
+        <v>114</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6318,13 +6324,13 @@
         <v>28641</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>236</v>
+        <v>376</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="H9" s="7">
         <v>112</v>
@@ -6333,13 +6339,13 @@
         <v>54022</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="M9" s="7">
         <v>153</v>
@@ -6348,19 +6354,19 @@
         <v>82664</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" s="7">
         <v>571</v>
@@ -6369,13 +6375,13 @@
         <v>521182</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>243</v>
+        <v>385</v>
       </c>
       <c r="H10" s="7">
         <v>883</v>
@@ -6384,13 +6390,13 @@
         <v>538533</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="M10" s="7">
         <v>1454</v>
@@ -6399,13 +6405,13 @@
         <v>1059714</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6420,13 +6426,13 @@
         <v>549823</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H11" s="7">
         <v>998</v>
@@ -6435,13 +6441,13 @@
         <v>619967</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M11" s="7">
         <v>1610</v>
@@ -6450,18 +6456,18 @@
         <v>1169790</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -6479,7 +6485,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="H12" s="7">
         <v>2</v>
@@ -6488,13 +6494,13 @@
         <v>1323</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="M12" s="7">
         <v>2</v>
@@ -6503,13 +6509,13 @@
         <v>1323</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="P12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>60</v>
+        <v>393</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6524,13 +6530,13 @@
         <v>39783</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>144</v>
+        <v>395</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>401</v>
+        <v>196</v>
       </c>
       <c r="H13" s="7">
         <v>158</v>
@@ -6539,13 +6545,13 @@
         <v>89591</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="M13" s="7">
         <v>215</v>
@@ -6554,19 +6560,19 @@
         <v>129374</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>86</v>
+        <v>400</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C14" s="7">
         <v>906</v>
@@ -6575,13 +6581,13 @@
         <v>998149</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>407</v>
+        <v>203</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>153</v>
+        <v>402</v>
       </c>
       <c r="H14" s="7">
         <v>1354</v>
@@ -6590,13 +6596,13 @@
         <v>966977</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="M14" s="7">
         <v>2260</v>
@@ -6605,13 +6611,13 @@
         <v>1965126</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>120</v>
+        <v>407</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6626,13 +6632,13 @@
         <v>1037932</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H15" s="7">
         <v>1514</v>
@@ -6641,13 +6647,13 @@
         <v>1057891</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M15" s="7">
         <v>2477</v>
@@ -6656,18 +6662,18 @@
         <v>2095823</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -6685,7 +6691,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -6700,7 +6706,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -6715,7 +6721,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6730,13 +6736,13 @@
         <v>33010</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="H17" s="7">
         <v>96</v>
@@ -6745,13 +6751,13 @@
         <v>63215</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>111</v>
+        <v>377</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="M17" s="7">
         <v>134</v>
@@ -6760,19 +6766,19 @@
         <v>96225</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>45</v>
+        <v>414</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>418</v>
+        <v>145</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C18" s="7">
         <v>635</v>
@@ -6781,13 +6787,13 @@
         <v>692709</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="H18" s="7">
         <v>947</v>
@@ -6796,13 +6802,13 @@
         <v>809335</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>120</v>
+        <v>384</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="M18" s="7">
         <v>1582</v>
@@ -6811,13 +6817,13 @@
         <v>1502044</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>55</v>
+        <v>421</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>426</v>
+        <v>154</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6832,13 +6838,13 @@
         <v>725719</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H19" s="7">
         <v>1043</v>
@@ -6847,13 +6853,13 @@
         <v>872550</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M19" s="7">
         <v>1716</v>
@@ -6862,18 +6868,18 @@
         <v>1598269</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -6891,7 +6897,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -6900,13 +6906,13 @@
         <v>2762</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="M20" s="7">
         <v>1</v>
@@ -6915,13 +6921,13 @@
         <v>2762</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6936,13 +6942,13 @@
         <v>43434</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>261</v>
+        <v>427</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="H21" s="7">
         <v>161</v>
@@ -6951,13 +6957,13 @@
         <v>113226</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>313</v>
+        <v>429</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="M21" s="7">
         <v>213</v>
@@ -6966,19 +6972,19 @@
         <v>156659</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>436</v>
+        <v>324</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C22" s="7">
         <v>953</v>
@@ -6987,13 +6993,13 @@
         <v>920866</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>271</v>
+        <v>436</v>
       </c>
       <c r="H22" s="7">
         <v>1396</v>
@@ -7002,13 +7008,13 @@
         <v>1032152</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>439</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>440</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>395</v>
       </c>
       <c r="M22" s="7">
         <v>2349</v>
@@ -7017,13 +7023,13 @@
         <v>1953020</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>441</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>442</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7038,13 +7044,13 @@
         <v>964300</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H23" s="7">
         <v>1558</v>
@@ -7053,13 +7059,13 @@
         <v>1148140</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M23" s="7">
         <v>2563</v>
@@ -7068,13 +7074,13 @@
         <v>2112441</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7097,7 +7103,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="H24" s="7">
         <v>6</v>
@@ -7112,7 +7118,7 @@
         <v>443</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>236</v>
+        <v>444</v>
       </c>
       <c r="M24" s="7">
         <v>6</v>
@@ -7121,13 +7127,13 @@
         <v>31497</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>399</v>
+        <v>445</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>381</v>
+        <v>446</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7142,13 +7148,13 @@
         <v>147374</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="H25" s="7">
         <v>559</v>
@@ -7157,34 +7163,34 @@
         <v>334408</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>448</v>
+        <v>164</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>449</v>
+        <v>309</v>
       </c>
       <c r="M25" s="7">
         <v>751</v>
       </c>
       <c r="N25" s="7">
-        <v>481781</v>
+        <v>481782</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C26" s="7">
         <v>3179</v>
@@ -7193,13 +7199,13 @@
         <v>3232382</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="H26" s="7">
         <v>4790</v>
@@ -7208,28 +7214,28 @@
         <v>3463055</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="M26" s="7">
         <v>7969</v>
       </c>
       <c r="N26" s="7">
-        <v>6695437</v>
+        <v>6695438</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>249</v>
+        <v>459</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7244,13 +7250,13 @@
         <v>3379756</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H27" s="7">
         <v>5355</v>
@@ -7259,33 +7265,33 @@
         <v>3828959</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M27" s="7">
         <v>8726</v>
       </c>
       <c r="N27" s="7">
-        <v>7208715</v>
+        <v>7208716</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P1418-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P1418-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D3C2D7CB-67EB-4E60-816E-F99E8D96F4B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C51AB909-43D9-4C82-BF1F-4F896A6C1D16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{88357DFF-207E-46B7-924E-81D9F728D821}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{056C2F73-999F-470F-A4AA-C8E8A03CDEE4}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="462">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="468">
   <si>
     <t>Población con diagnóstico de mala circulación en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>No recogida</t>
@@ -95,16 +95,19 @@
     <t>2,68%</t>
   </si>
   <si>
-    <t>6,46%</t>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
   </si>
   <si>
     <t>11,5%</t>
   </si>
   <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>18,25%</t>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>17,69%</t>
   </si>
   <si>
     <t>7,04%</t>
@@ -113,1287 +116,1305 @@
     <t>4,11%</t>
   </si>
   <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>97,32%</t>
+  </si>
+  <si>
+    <t>92,85%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>88,5%</t>
+  </si>
+  <si>
+    <t>82,31%</t>
+  </si>
+  <si>
+    <t>93,49%</t>
+  </si>
+  <si>
+    <t>92,96%</t>
+  </si>
+  <si>
+    <t>89,24%</t>
+  </si>
+  <si>
+    <t>95,89%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>94,24%</t>
+  </si>
+  <si>
+    <t>92,19%</t>
+  </si>
+  <si>
+    <t>95,8%</t>
+  </si>
+  <si>
+    <t>92,01%</t>
+  </si>
+  <si>
+    <t>89,31%</t>
+  </si>
+  <si>
+    <t>93,92%</t>
+  </si>
+  <si>
+    <t>93,13%</t>
+  </si>
+  <si>
+    <t>91,55%</t>
+  </si>
+  <si>
+    <t>94,49%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>94,36%</t>
+  </si>
+  <si>
+    <t>92,79%</t>
+  </si>
+  <si>
+    <t>95,79%</t>
+  </si>
+  <si>
+    <t>90,34%</t>
+  </si>
+  <si>
+    <t>88,31%</t>
+  </si>
+  <si>
+    <t>92,15%</t>
+  </si>
+  <si>
+    <t>92,34%</t>
+  </si>
+  <si>
+    <t>91,0%</t>
+  </si>
+  <si>
+    <t>93,62%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>94,81%</t>
+  </si>
+  <si>
+    <t>92,93%</t>
+  </si>
+  <si>
+    <t>96,26%</t>
+  </si>
+  <si>
+    <t>88,63%</t>
+  </si>
+  <si>
+    <t>86,09%</t>
+  </si>
+  <si>
+    <t>90,88%</t>
+  </si>
+  <si>
+    <t>91,71%</t>
+  </si>
+  <si>
+    <t>90,2%</t>
+  </si>
+  <si>
+    <t>93,2%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
     <t>10,87%</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>97,32%</t>
-  </si>
-  <si>
-    <t>93,54%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>88,5%</t>
-  </si>
-  <si>
-    <t>81,75%</t>
-  </si>
-  <si>
-    <t>93,41%</t>
-  </si>
-  <si>
-    <t>92,96%</t>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>12,98%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>95,71%</t>
   </si>
   <si>
     <t>89,13%</t>
   </si>
   <si>
-    <t>95,89%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
+    <t>87,02%</t>
+  </si>
+  <si>
+    <t>90,98%</t>
+  </si>
+  <si>
+    <t>91,62%</t>
+  </si>
+  <si>
+    <t>90,35%</t>
+  </si>
+  <si>
+    <t>92,84%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
   </si>
   <si>
     <t>8,53%</t>
   </si>
   <si>
-    <t>94,24%</t>
-  </si>
-  <si>
-    <t>92,14%</t>
-  </si>
-  <si>
-    <t>95,91%</t>
-  </si>
-  <si>
-    <t>92,01%</t>
-  </si>
-  <si>
-    <t>89,83%</t>
-  </si>
-  <si>
-    <t>94,06%</t>
-  </si>
-  <si>
-    <t>93,13%</t>
+    <t>94,53%</t>
+  </si>
+  <si>
+    <t>93,7%</t>
+  </si>
+  <si>
+    <t>95,31%</t>
+  </si>
+  <si>
+    <t>89,85%</t>
+  </si>
+  <si>
+    <t>88,74%</t>
+  </si>
+  <si>
+    <t>90,83%</t>
   </si>
   <si>
     <t>91,47%</t>
   </si>
   <si>
-    <t>94,4%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
+    <t>92,83%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de mala circulación en 2012 (Tasa respuesta: 99,95%)</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>20,2%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>97,09%</t>
+  </si>
+  <si>
+    <t>92,81%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>87,75%</t>
+  </si>
+  <si>
+    <t>79,8%</t>
+  </si>
+  <si>
+    <t>93,37%</t>
+  </si>
+  <si>
+    <t>92,5%</t>
+  </si>
+  <si>
+    <t>88,18%</t>
+  </si>
+  <si>
+    <t>95,48%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>96,97%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>90,38%</t>
+  </si>
+  <si>
+    <t>87,47%</t>
+  </si>
+  <si>
+    <t>92,76%</t>
+  </si>
+  <si>
+    <t>93,68%</t>
+  </si>
+  <si>
+    <t>92,09%</t>
+  </si>
+  <si>
+    <t>95,02%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>96,32%</t>
+  </si>
+  <si>
+    <t>95,08%</t>
+  </si>
+  <si>
+    <t>97,5%</t>
+  </si>
+  <si>
+    <t>89,77%</t>
+  </si>
+  <si>
+    <t>87,81%</t>
+  </si>
+  <si>
+    <t>91,59%</t>
+  </si>
+  <si>
+    <t>93,03%</t>
+  </si>
+  <si>
+    <t>91,72%</t>
+  </si>
+  <si>
+    <t>94,12%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>96,84%</t>
+  </si>
+  <si>
+    <t>95,1%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>92,22%</t>
+  </si>
+  <si>
+    <t>90,09%</t>
+  </si>
+  <si>
+    <t>94,25%</t>
+  </si>
+  <si>
+    <t>94,5%</t>
+  </si>
+  <si>
+    <t>95,67%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>12,34%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>97,44%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>89,52%</t>
+  </si>
+  <si>
+    <t>87,66%</t>
+  </si>
+  <si>
+    <t>91,32%</t>
+  </si>
+  <si>
+    <t>93,28%</t>
+  </si>
+  <si>
+    <t>92,11%</t>
+  </si>
+  <si>
+    <t>94,39%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>96,88%</t>
+  </si>
+  <si>
+    <t>96,23%</t>
+  </si>
+  <si>
+    <t>97,48%</t>
+  </si>
+  <si>
+    <t>90,27%</t>
+  </si>
+  <si>
+    <t>89,26%</t>
+  </si>
+  <si>
+    <t>91,23%</t>
+  </si>
+  <si>
+    <t>93,51%</t>
+  </si>
+  <si>
+    <t>92,88%</t>
+  </si>
+  <si>
+    <t>94,14%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de mala circulación en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>93,93%</t>
+  </si>
+  <si>
+    <t>88,05%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>93,74%</t>
+  </si>
+  <si>
+    <t>88,46%</t>
+  </si>
+  <si>
+    <t>97,21%</t>
+  </si>
+  <si>
+    <t>93,83%</t>
+  </si>
+  <si>
+    <t>96,21%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>97,17%</t>
+  </si>
+  <si>
+    <t>95,56%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>91,88%</t>
+  </si>
+  <si>
+    <t>89,36%</t>
+  </si>
+  <si>
+    <t>93,96%</t>
+  </si>
+  <si>
+    <t>94,52%</t>
+  </si>
+  <si>
+    <t>95,78%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>97,6%</t>
+  </si>
+  <si>
+    <t>96,56%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>93,72%</t>
+  </si>
+  <si>
+    <t>95,24%</t>
+  </si>
+  <si>
+    <t>95,64%</t>
+  </si>
+  <si>
+    <t>94,63%</t>
+  </si>
+  <si>
+    <t>96,49%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
+  </si>
+  <si>
+    <t>96,41%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>92,46%</t>
+  </si>
+  <si>
+    <t>90,46%</t>
+  </si>
+  <si>
+    <t>94,42%</t>
+  </si>
+  <si>
+    <t>95,04%</t>
+  </si>
+  <si>
+    <t>93,85%</t>
+  </si>
+  <si>
+    <t>96,2%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>98,21%</t>
+  </si>
+  <si>
+    <t>97,02%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>92,72%</t>
+  </si>
+  <si>
+    <t>90,94%</t>
+  </si>
+  <si>
+    <t>94,23%</t>
+  </si>
+  <si>
+    <t>95,32%</t>
+  </si>
+  <si>
+    <t>94,21%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
   </si>
   <si>
     <t>4,34%</t>
   </si>
   <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>94,36%</t>
-  </si>
-  <si>
-    <t>92,72%</t>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>97,59%</t>
+  </si>
+  <si>
+    <t>97,03%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
+  </si>
+  <si>
+    <t>92,86%</t>
+  </si>
+  <si>
+    <t>91,8%</t>
+  </si>
+  <si>
+    <t>93,73%</t>
+  </si>
+  <si>
+    <t>95,17%</t>
+  </si>
+  <si>
+    <t>94,6%</t>
   </si>
   <si>
     <t>95,66%</t>
   </si>
   <si>
-    <t>90,34%</t>
-  </si>
-  <si>
-    <t>88,15%</t>
-  </si>
-  <si>
-    <t>92,11%</t>
-  </si>
-  <si>
-    <t>92,34%</t>
-  </si>
-  <si>
-    <t>90,95%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>13,78%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>94,81%</t>
-  </si>
-  <si>
-    <t>92,68%</t>
-  </si>
-  <si>
-    <t>96,34%</t>
-  </si>
-  <si>
-    <t>88,63%</t>
-  </si>
-  <si>
-    <t>86,22%</t>
-  </si>
-  <si>
-    <t>91,0%</t>
-  </si>
-  <si>
-    <t>91,71%</t>
-  </si>
-  <si>
-    <t>90,03%</t>
-  </si>
-  <si>
-    <t>93,1%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>13,07%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>92,78%</t>
-  </si>
-  <si>
-    <t>95,62%</t>
-  </si>
-  <si>
-    <t>86,93%</t>
-  </si>
-  <si>
-    <t>90,92%</t>
-  </si>
-  <si>
-    <t>91,62%</t>
-  </si>
-  <si>
-    <t>90,19%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>94,53%</t>
-  </si>
-  <si>
-    <t>93,7%</t>
-  </si>
-  <si>
-    <t>95,22%</t>
-  </si>
-  <si>
-    <t>89,85%</t>
-  </si>
-  <si>
-    <t>88,73%</t>
-  </si>
-  <si>
-    <t>90,8%</t>
-  </si>
-  <si>
-    <t>92,15%</t>
-  </si>
-  <si>
-    <t>91,52%</t>
-  </si>
-  <si>
-    <t>92,85%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de mala circulación en 2012 (Tasa respuesta: 99,95%)</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
+    <t>Población con diagnóstico de mala circulación en 2023 (Tasa respuesta: 99,81%)</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
   </si>
   <si>
     <t>0,73%</t>
   </si>
   <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>19,67%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>15,28%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>93,79%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>88,99%</t>
+  </si>
+  <si>
+    <t>84,72%</t>
+  </si>
+  <si>
+    <t>92,44%</t>
+  </si>
+  <si>
+    <t>92,75%</t>
+  </si>
+  <si>
+    <t>89,89%</t>
+  </si>
+  <si>
+    <t>94,78%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>18,83%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>94,79%</t>
+  </si>
+  <si>
+    <t>86,86%</t>
+  </si>
+  <si>
+    <t>73,37%</t>
+  </si>
+  <si>
+    <t>91,36%</t>
+  </si>
+  <si>
+    <t>90,59%</t>
+  </si>
+  <si>
+    <t>82,62%</t>
+  </si>
+  <si>
+    <t>92,99%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>96,17%</t>
+  </si>
+  <si>
+    <t>94,89%</t>
+  </si>
+  <si>
+    <t>97,2%</t>
+  </si>
+  <si>
+    <t>91,41%</t>
+  </si>
+  <si>
+    <t>89,99%</t>
+  </si>
+  <si>
+    <t>92,67%</t>
+  </si>
+  <si>
+    <t>93,76%</t>
+  </si>
+  <si>
+    <t>94,65%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
   </si>
   <si>
     <t>4,56%</t>
   </si>
   <si>
-    <t>11,91%</t>
-  </si>
-  <si>
-    <t>97,09%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>87,75%</t>
-  </si>
-  <si>
-    <t>80,33%</t>
-  </si>
-  <si>
-    <t>93,26%</t>
-  </si>
-  <si>
-    <t>92,5%</t>
-  </si>
-  <si>
-    <t>88,09%</t>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>95,45%</t>
+  </si>
+  <si>
+    <t>93,63%</t>
+  </si>
+  <si>
+    <t>96,76%</t>
+  </si>
+  <si>
+    <t>90,81%</t>
+  </si>
+  <si>
+    <t>95,16%</t>
+  </si>
+  <si>
+    <t>93,98%</t>
+  </si>
+  <si>
+    <t>92,77%</t>
   </si>
   <si>
     <t>95,44%</t>
   </si>
   <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>95,5%</t>
+  </si>
+  <si>
+    <t>96,59%</t>
+  </si>
+  <si>
+    <t>89,9%</t>
+  </si>
+  <si>
+    <t>87,6%</t>
+  </si>
+  <si>
+    <t>91,42%</t>
+  </si>
+  <si>
+    <t>92,45%</t>
+  </si>
+  <si>
+    <t>90,79%</t>
+  </si>
+  <si>
+    <t>93,38%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
   </si>
   <si>
     <t>7,76%</t>
   </si>
   <si>
-    <t>96,97%</t>
-  </si>
-  <si>
-    <t>95,25%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
-  </si>
-  <si>
-    <t>90,38%</t>
-  </si>
-  <si>
-    <t>87,64%</t>
-  </si>
-  <si>
-    <t>92,57%</t>
-  </si>
-  <si>
-    <t>93,68%</t>
-  </si>
-  <si>
-    <t>92,24%</t>
-  </si>
-  <si>
-    <t>95,03%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>12,16%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>96,32%</t>
-  </si>
-  <si>
-    <t>94,93%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
-  </si>
-  <si>
-    <t>89,77%</t>
-  </si>
-  <si>
-    <t>87,84%</t>
-  </si>
-  <si>
-    <t>91,63%</t>
-  </si>
-  <si>
-    <t>93,03%</t>
-  </si>
-  <si>
-    <t>91,79%</t>
-  </si>
-  <si>
-    <t>94,07%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>96,84%</t>
-  </si>
-  <si>
-    <t>94,89%</t>
-  </si>
-  <si>
-    <t>98,06%</t>
-  </si>
-  <si>
-    <t>92,22%</t>
-  </si>
-  <si>
-    <t>90,11%</t>
-  </si>
-  <si>
-    <t>94,01%</t>
-  </si>
-  <si>
-    <t>94,5%</t>
-  </si>
-  <si>
-    <t>95,58%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>97,44%</t>
-  </si>
-  <si>
-    <t>96,14%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
-  </si>
-  <si>
-    <t>89,52%</t>
-  </si>
-  <si>
-    <t>87,41%</t>
-  </si>
-  <si>
-    <t>91,15%</t>
-  </si>
-  <si>
-    <t>93,28%</t>
-  </si>
-  <si>
-    <t>92,07%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>96,88%</t>
-  </si>
-  <si>
-    <t>96,16%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
-  </si>
-  <si>
-    <t>90,27%</t>
-  </si>
-  <si>
-    <t>88,99%</t>
-  </si>
-  <si>
-    <t>91,17%</t>
-  </si>
-  <si>
-    <t>93,51%</t>
-  </si>
-  <si>
-    <t>92,89%</t>
-  </si>
-  <si>
-    <t>94,08%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de mala circulación en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>93,93%</t>
-  </si>
-  <si>
-    <t>88,6%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
-  </si>
-  <si>
-    <t>93,74%</t>
-  </si>
-  <si>
-    <t>87,48%</t>
-  </si>
-  <si>
-    <t>97,28%</t>
-  </si>
-  <si>
-    <t>93,83%</t>
-  </si>
-  <si>
-    <t>90,42%</t>
-  </si>
-  <si>
-    <t>96,55%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>97,17%</t>
-  </si>
-  <si>
-    <t>95,49%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>91,88%</t>
-  </si>
-  <si>
-    <t>89,47%</t>
-  </si>
-  <si>
-    <t>94,14%</t>
-  </si>
-  <si>
-    <t>94,52%</t>
-  </si>
-  <si>
-    <t>93,14%</t>
-  </si>
-  <si>
-    <t>95,81%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>97,6%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>93,72%</t>
-  </si>
-  <si>
-    <t>92,08%</t>
-  </si>
-  <si>
-    <t>95,13%</t>
-  </si>
-  <si>
-    <t>95,64%</t>
-  </si>
-  <si>
-    <t>94,67%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
     <t>9,67%</t>
   </si>
   <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>97,7%</t>
-  </si>
-  <si>
-    <t>96,4%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
-  </si>
-  <si>
-    <t>92,46%</t>
-  </si>
-  <si>
-    <t>90,33%</t>
-  </si>
-  <si>
-    <t>94,43%</t>
-  </si>
-  <si>
-    <t>95,04%</t>
-  </si>
-  <si>
-    <t>93,82%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
-  </si>
-  <si>
-    <t>97,02%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>90,9%</t>
-  </si>
-  <si>
-    <t>94,38%</t>
-  </si>
-  <si>
-    <t>95,32%</t>
-  </si>
-  <si>
-    <t>94,22%</t>
-  </si>
-  <si>
-    <t>96,21%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>97,59%</t>
-  </si>
-  <si>
-    <t>97,07%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>92,86%</t>
-  </si>
-  <si>
-    <t>91,84%</t>
-  </si>
-  <si>
-    <t>93,73%</t>
-  </si>
-  <si>
-    <t>95,17%</t>
-  </si>
-  <si>
-    <t>94,57%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de mala circulación en 2023 (Tasa respuesta: 99,81%)</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>15,28%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>97,54%</t>
-  </si>
-  <si>
-    <t>93,79%</t>
-  </si>
-  <si>
-    <t>84,72%</t>
-  </si>
-  <si>
-    <t>92,44%</t>
-  </si>
-  <si>
-    <t>92,75%</t>
-  </si>
-  <si>
-    <t>89,89%</t>
-  </si>
-  <si>
-    <t>94,78%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>18,83%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>11,8%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>94,79%</t>
-  </si>
-  <si>
-    <t>92,76%</t>
-  </si>
-  <si>
-    <t>96,2%</t>
-  </si>
-  <si>
-    <t>86,86%</t>
-  </si>
-  <si>
-    <t>73,37%</t>
-  </si>
-  <si>
-    <t>91,36%</t>
-  </si>
-  <si>
-    <t>90,59%</t>
-  </si>
-  <si>
-    <t>82,62%</t>
-  </si>
-  <si>
-    <t>92,99%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>96,17%</t>
-  </si>
-  <si>
-    <t>97,2%</t>
-  </si>
-  <si>
-    <t>91,41%</t>
-  </si>
-  <si>
-    <t>89,99%</t>
-  </si>
-  <si>
-    <t>92,67%</t>
-  </si>
-  <si>
-    <t>93,76%</t>
-  </si>
-  <si>
-    <t>92,81%</t>
-  </si>
-  <si>
-    <t>94,65%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>95,45%</t>
-  </si>
-  <si>
-    <t>93,63%</t>
-  </si>
-  <si>
-    <t>96,76%</t>
-  </si>
-  <si>
-    <t>90,81%</t>
-  </si>
-  <si>
-    <t>95,16%</t>
-  </si>
-  <si>
-    <t>93,98%</t>
-  </si>
-  <si>
-    <t>92,77%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>95,5%</t>
-  </si>
-  <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>96,59%</t>
-  </si>
-  <si>
-    <t>89,9%</t>
-  </si>
-  <si>
-    <t>87,6%</t>
-  </si>
-  <si>
-    <t>91,42%</t>
-  </si>
-  <si>
-    <t>92,45%</t>
-  </si>
-  <si>
-    <t>90,79%</t>
-  </si>
-  <si>
-    <t>93,38%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
     <t>6,68%</t>
   </si>
   <si>
@@ -1416,9 +1437,6 @@
   </si>
   <si>
     <t>91,61%</t>
-  </si>
-  <si>
-    <t>92,88%</t>
   </si>
   <si>
     <t>91,56%</t>
@@ -1836,7 +1854,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F1AD72C-A664-42EF-BA84-CC253654726F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D5B61EA-4D3F-43DE-8669-7A02B37D770C}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2014,10 +2032,10 @@
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H5" s="7">
         <v>14</v>
@@ -2026,13 +2044,13 @@
         <v>12972</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M5" s="7">
         <v>17</v>
@@ -2041,19 +2059,19 @@
         <v>16059</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" s="7">
         <v>102</v>
@@ -2062,13 +2080,13 @@
         <v>112271</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H6" s="7">
         <v>114</v>
@@ -2077,13 +2095,13 @@
         <v>99783</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M6" s="7">
         <v>216</v>
@@ -2092,13 +2110,13 @@
         <v>212054</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2113,13 +2131,13 @@
         <v>115358</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H7" s="7">
         <v>128</v>
@@ -2128,13 +2146,13 @@
         <v>112755</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M7" s="7">
         <v>233</v>
@@ -2143,18 +2161,18 @@
         <v>228113</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -2172,7 +2190,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -2187,7 +2205,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -2202,7 +2220,7 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2217,13 +2235,13 @@
         <v>33354</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H9" s="7">
         <v>45</v>
@@ -2232,13 +2250,13 @@
         <v>45994</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M9" s="7">
         <v>79</v>
@@ -2247,19 +2265,19 @@
         <v>79347</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" s="7">
         <v>544</v>
@@ -2268,13 +2286,13 @@
         <v>545300</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H10" s="7">
         <v>523</v>
@@ -2283,13 +2301,13 @@
         <v>529602</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M10" s="7">
         <v>1067</v>
@@ -2298,13 +2316,13 @@
         <v>1074903</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2319,13 +2337,13 @@
         <v>578654</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H11" s="7">
         <v>568</v>
@@ -2334,13 +2352,13 @@
         <v>575596</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M11" s="7">
         <v>1146</v>
@@ -2349,18 +2367,18 @@
         <v>1154250</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -2378,7 +2396,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -2393,7 +2411,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -2408,7 +2426,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2423,13 +2441,13 @@
         <v>54273</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H13" s="7">
         <v>86</v>
@@ -2438,13 +2456,13 @@
         <v>93523</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M13" s="7">
         <v>139</v>
@@ -2453,19 +2471,19 @@
         <v>147796</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" s="7">
         <v>843</v>
@@ -2474,13 +2492,13 @@
         <v>907527</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H14" s="7">
         <v>822</v>
@@ -2489,13 +2507,13 @@
         <v>874870</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="M14" s="7">
         <v>1665</v>
@@ -2504,13 +2522,13 @@
         <v>1782397</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>31</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2525,13 +2543,13 @@
         <v>961800</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H15" s="7">
         <v>908</v>
@@ -2540,13 +2558,13 @@
         <v>968393</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M15" s="7">
         <v>1804</v>
@@ -2555,18 +2573,18 @@
         <v>1930193</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2584,7 +2602,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -2599,7 +2617,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -2614,7 +2632,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2629,13 +2647,13 @@
         <v>35242</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="H17" s="7">
         <v>78</v>
@@ -2644,13 +2662,13 @@
         <v>77734</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="M17" s="7">
         <v>112</v>
@@ -2659,19 +2677,19 @@
         <v>112976</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C18" s="7">
         <v>607</v>
@@ -2680,13 +2698,13 @@
         <v>643267</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="H18" s="7">
         <v>618</v>
@@ -2695,13 +2713,13 @@
         <v>606107</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="M18" s="7">
         <v>1225</v>
@@ -2710,13 +2728,13 @@
         <v>1249374</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2731,13 +2749,13 @@
         <v>678509</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H19" s="7">
         <v>696</v>
@@ -2746,13 +2764,13 @@
         <v>683841</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M19" s="7">
         <v>1337</v>
@@ -2761,18 +2779,18 @@
         <v>1362350</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -2790,7 +2808,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -2805,7 +2823,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -2820,7 +2838,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2835,13 +2853,13 @@
         <v>53127</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>103</v>
+        <v>19</v>
       </c>
       <c r="H21" s="7">
         <v>108</v>
@@ -2850,13 +2868,13 @@
         <v>112929</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>24</v>
+        <v>106</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="M21" s="7">
         <v>167</v>
@@ -2865,19 +2883,19 @@
         <v>166057</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C22" s="7">
         <v>935</v>
@@ -2886,13 +2904,13 @@
         <v>889095</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>108</v>
+        <v>28</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="H22" s="7">
         <v>889</v>
@@ -2901,13 +2919,13 @@
         <v>925683</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>33</v>
+        <v>113</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="M22" s="7">
         <v>1824</v>
@@ -2916,13 +2934,13 @@
         <v>1814777</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2937,13 +2955,13 @@
         <v>942222</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H23" s="7">
         <v>997</v>
@@ -2952,13 +2970,13 @@
         <v>1038612</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M23" s="7">
         <v>1991</v>
@@ -2967,13 +2985,13 @@
         <v>1980834</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2996,7 +3014,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -3011,7 +3029,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -3026,7 +3044,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3041,13 +3059,13 @@
         <v>179083</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="H25" s="7">
         <v>331</v>
@@ -3056,13 +3074,13 @@
         <v>343152</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="M25" s="7">
         <v>514</v>
@@ -3071,34 +3089,34 @@
         <v>522235</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>122</v>
+        <v>66</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C26" s="7">
         <v>3031</v>
       </c>
       <c r="D26" s="7">
-        <v>3097461</v>
+        <v>3097460</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="H26" s="7">
         <v>2966</v>
@@ -3107,13 +3125,13 @@
         <v>3036046</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="M26" s="7">
         <v>5997</v>
@@ -3122,13 +3140,13 @@
         <v>6133506</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>131</v>
+        <v>76</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3140,16 +3158,16 @@
         <v>3214</v>
       </c>
       <c r="D27" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H27" s="7">
         <v>3297</v>
@@ -3158,13 +3176,13 @@
         <v>3379198</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M27" s="7">
         <v>6511</v>
@@ -3173,18 +3191,18 @@
         <v>6655741</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -3205,7 +3223,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B54B8858-6E51-437F-AE9A-ECCFFE5A8D67}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4875B8A5-F5D4-4A91-9344-A9B1279D0E0C}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3222,7 +3240,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3335,7 +3353,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -3350,7 +3368,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -3365,7 +3383,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3380,13 +3398,13 @@
         <v>3368</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>67</v>
+        <v>144</v>
       </c>
       <c r="H5" s="7">
         <v>12</v>
@@ -3395,13 +3413,13 @@
         <v>13710</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="M5" s="7">
         <v>16</v>
@@ -3410,19 +3428,19 @@
         <v>17078</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" s="7">
         <v>118</v>
@@ -3431,13 +3449,13 @@
         <v>112397</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>75</v>
+        <v>152</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="H6" s="7">
         <v>87</v>
@@ -3446,13 +3464,13 @@
         <v>98195</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="M6" s="7">
         <v>205</v>
@@ -3461,13 +3479,13 @@
         <v>210592</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3482,13 +3500,13 @@
         <v>115765</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H7" s="7">
         <v>99</v>
@@ -3497,13 +3515,13 @@
         <v>111905</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M7" s="7">
         <v>221</v>
@@ -3512,18 +3530,18 @@
         <v>227670</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -3541,7 +3559,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -3556,7 +3574,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -3571,7 +3589,7 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3586,13 +3604,13 @@
         <v>17827</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>158</v>
+        <v>122</v>
       </c>
       <c r="H9" s="7">
         <v>51</v>
@@ -3601,13 +3619,13 @@
         <v>56270</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="M9" s="7">
         <v>68</v>
@@ -3616,19 +3634,19 @@
         <v>74097</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" s="7">
         <v>535</v>
@@ -3637,13 +3655,13 @@
         <v>569877</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>166</v>
+        <v>131</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="H10" s="7">
         <v>500</v>
@@ -3652,13 +3670,13 @@
         <v>528875</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="M10" s="7">
         <v>1035</v>
@@ -3667,13 +3685,13 @@
         <v>1098752</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3688,13 +3706,13 @@
         <v>587704</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H11" s="7">
         <v>551</v>
@@ -3703,13 +3721,13 @@
         <v>585145</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M11" s="7">
         <v>1103</v>
@@ -3718,18 +3736,18 @@
         <v>1172849</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -3747,7 +3765,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -3762,7 +3780,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -3777,7 +3795,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3792,13 +3810,13 @@
         <v>37462</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="H13" s="7">
         <v>96</v>
@@ -3807,13 +3825,13 @@
         <v>105279</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="M13" s="7">
         <v>131</v>
@@ -3822,19 +3840,19 @@
         <v>142741</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" s="7">
         <v>901</v>
@@ -3843,13 +3861,13 @@
         <v>980485</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="H14" s="7">
         <v>842</v>
@@ -3858,13 +3876,13 @@
         <v>923694</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="M14" s="7">
         <v>1743</v>
@@ -3873,13 +3891,13 @@
         <v>1904179</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3894,13 +3912,13 @@
         <v>1017947</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H15" s="7">
         <v>938</v>
@@ -3909,13 +3927,13 @@
         <v>1028973</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M15" s="7">
         <v>1874</v>
@@ -3924,18 +3942,18 @@
         <v>2046920</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3953,7 +3971,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -3968,7 +3986,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -3983,7 +4001,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3998,13 +4016,13 @@
         <v>23964</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="H17" s="7">
         <v>54</v>
@@ -4013,13 +4031,13 @@
         <v>60478</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="M17" s="7">
         <v>73</v>
@@ -4028,19 +4046,19 @@
         <v>84442</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>46</v>
+        <v>86</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C18" s="7">
         <v>670</v>
@@ -4049,13 +4067,13 @@
         <v>733659</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="H18" s="7">
         <v>651</v>
@@ -4064,13 +4082,13 @@
         <v>716696</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="M18" s="7">
         <v>1321</v>
@@ -4079,13 +4097,13 @@
         <v>1450355</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>55</v>
+        <v>94</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4100,13 +4118,13 @@
         <v>757623</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H19" s="7">
         <v>705</v>
@@ -4115,13 +4133,13 @@
         <v>777174</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M19" s="7">
         <v>1394</v>
@@ -4130,18 +4148,18 @@
         <v>1534797</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -4159,7 +4177,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -4174,7 +4192,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -4189,7 +4207,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4204,13 +4222,13 @@
         <v>24270</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>212</v>
+        <v>85</v>
       </c>
       <c r="H21" s="7">
         <v>105</v>
@@ -4219,13 +4237,13 @@
         <v>110095</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="M21" s="7">
         <v>128</v>
@@ -4234,19 +4252,19 @@
         <v>134366</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>47</v>
+        <v>219</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C22" s="7">
         <v>887</v>
@@ -4255,13 +4273,13 @@
         <v>923469</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>219</v>
+        <v>95</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="H22" s="7">
         <v>897</v>
@@ -4270,13 +4288,13 @@
         <v>940759</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="M22" s="7">
         <v>1784</v>
@@ -4285,13 +4303,13 @@
         <v>1864228</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>57</v>
+        <v>228</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4306,13 +4324,13 @@
         <v>947739</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H23" s="7">
         <v>1002</v>
@@ -4321,13 +4339,13 @@
         <v>1050854</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M23" s="7">
         <v>1912</v>
@@ -4336,13 +4354,13 @@
         <v>1998594</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4365,7 +4383,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -4380,7 +4398,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -4395,7 +4413,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4410,13 +4428,13 @@
         <v>106891</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="H25" s="7">
         <v>318</v>
@@ -4425,13 +4443,13 @@
         <v>345832</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="M25" s="7">
         <v>416</v>
@@ -4440,19 +4458,19 @@
         <v>452724</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C26" s="7">
         <v>3111</v>
@@ -4461,13 +4479,13 @@
         <v>3319888</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="H26" s="7">
         <v>2977</v>
@@ -4476,28 +4494,28 @@
         <v>3208220</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="M26" s="7">
         <v>6088</v>
       </c>
       <c r="N26" s="7">
-        <v>6528107</v>
+        <v>6528106</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4512,13 +4530,13 @@
         <v>3426779</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H27" s="7">
         <v>3295</v>
@@ -4527,33 +4545,33 @@
         <v>3554052</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M27" s="7">
         <v>6504</v>
       </c>
       <c r="N27" s="7">
-        <v>6980831</v>
+        <v>6980830</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -4574,7 +4592,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47B13F19-B96A-482E-8B5F-E6E5213AC0A0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D6E95A2-833D-4B99-8208-79D72257CB33}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4591,7 +4609,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4704,7 +4722,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -4719,7 +4737,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -4734,7 +4752,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4749,13 +4767,13 @@
         <v>7079</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="H5" s="7">
         <v>7</v>
@@ -4764,13 +4782,13 @@
         <v>7098</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="M5" s="7">
         <v>14</v>
@@ -4779,19 +4797,19 @@
         <v>14177</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>256</v>
+        <v>202</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" s="7">
         <v>106</v>
@@ -4800,13 +4818,13 @@
         <v>109467</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="H6" s="7">
         <v>108</v>
@@ -4815,13 +4833,13 @@
         <v>106262</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="M6" s="7">
         <v>214</v>
@@ -4830,13 +4848,13 @@
         <v>215729</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>264</v>
+        <v>209</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4851,13 +4869,13 @@
         <v>116546</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H7" s="7">
         <v>115</v>
@@ -4866,13 +4884,13 @@
         <v>113360</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M7" s="7">
         <v>228</v>
@@ -4881,18 +4899,18 @@
         <v>229906</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -4910,7 +4928,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -4925,7 +4943,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -4940,7 +4958,7 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4955,13 +4973,13 @@
         <v>15810</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H9" s="7">
         <v>42</v>
@@ -4970,13 +4988,13 @@
         <v>45417</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="M9" s="7">
         <v>58</v>
@@ -4985,19 +5003,19 @@
         <v>61227</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>276</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" s="7">
         <v>523</v>
@@ -5039,10 +5057,10 @@
         <v>283</v>
       </c>
       <c r="P10" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>284</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5057,13 +5075,13 @@
         <v>558254</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H11" s="7">
         <v>551</v>
@@ -5072,13 +5090,13 @@
         <v>559479</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M11" s="7">
         <v>1090</v>
@@ -5087,18 +5105,18 @@
         <v>1117733</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -5116,7 +5134,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -5131,7 +5149,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -5146,7 +5164,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5161,13 +5179,13 @@
         <v>24548</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>286</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>287</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>288</v>
       </c>
       <c r="H13" s="7">
         <v>57</v>
@@ -5176,13 +5194,13 @@
         <v>65470</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="K13" s="7" t="s">
-        <v>290</v>
-      </c>
       <c r="L13" s="7" t="s">
-        <v>291</v>
+        <v>66</v>
       </c>
       <c r="M13" s="7">
         <v>83</v>
@@ -5191,19 +5209,19 @@
         <v>90017</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>292</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" s="7">
         <v>925</v>
@@ -5212,13 +5230,13 @@
         <v>997883</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>295</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>296</v>
       </c>
       <c r="H14" s="7">
         <v>920</v>
@@ -5227,13 +5245,13 @@
         <v>977443</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>297</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>299</v>
       </c>
       <c r="M14" s="7">
         <v>1845</v>
@@ -5242,13 +5260,13 @@
         <v>1975327</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>300</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5263,13 +5281,13 @@
         <v>1022431</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H15" s="7">
         <v>977</v>
@@ -5278,13 +5296,13 @@
         <v>1042913</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M15" s="7">
         <v>1928</v>
@@ -5293,18 +5311,18 @@
         <v>2065344</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5322,7 +5340,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -5337,7 +5355,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -5352,7 +5370,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5367,13 +5385,13 @@
         <v>17492</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>304</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>305</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>306</v>
       </c>
       <c r="H17" s="7">
         <v>49</v>
@@ -5382,13 +5400,13 @@
         <v>59155</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>307</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>308</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>309</v>
       </c>
       <c r="M17" s="7">
         <v>66</v>
@@ -5397,10 +5415,10 @@
         <v>76647</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>310</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>212</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>311</v>
@@ -5409,7 +5427,7 @@
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C18" s="7">
         <v>679</v>
@@ -5454,7 +5472,7 @@
         <v>319</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>219</v>
+        <v>320</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5469,13 +5487,13 @@
         <v>759552</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H19" s="7">
         <v>736</v>
@@ -5484,13 +5502,13 @@
         <v>785011</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M19" s="7">
         <v>1432</v>
@@ -5499,18 +5517,18 @@
         <v>1544563</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -5528,7 +5546,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -5543,7 +5561,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -5558,7 +5576,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5573,13 +5591,13 @@
         <v>16783</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H21" s="7">
         <v>66</v>
@@ -5588,13 +5606,13 @@
         <v>75983</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>63</v>
+        <v>324</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="M21" s="7">
         <v>82</v>
@@ -5603,19 +5621,19 @@
         <v>92766</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>326</v>
+        <v>310</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C22" s="7">
         <v>916</v>
@@ -5624,13 +5642,13 @@
         <v>920784</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H22" s="7">
         <v>893</v>
@@ -5639,13 +5657,13 @@
         <v>967796</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>70</v>
+        <v>332</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="M22" s="7">
         <v>1809</v>
@@ -5654,13 +5672,13 @@
         <v>1888580</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>335</v>
+        <v>320</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5675,13 +5693,13 @@
         <v>937567</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H23" s="7">
         <v>959</v>
@@ -5690,13 +5708,13 @@
         <v>1043779</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M23" s="7">
         <v>1891</v>
@@ -5705,13 +5723,13 @@
         <v>1981346</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5734,7 +5752,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -5749,7 +5767,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -5764,7 +5782,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5779,13 +5797,13 @@
         <v>81712</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="H25" s="7">
         <v>221</v>
@@ -5794,13 +5812,13 @@
         <v>253123</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="M25" s="7">
         <v>303</v>
@@ -5809,19 +5827,19 @@
         <v>334835</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>62</v>
+        <v>344</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C26" s="7">
         <v>3149</v>
@@ -5830,13 +5848,13 @@
         <v>3312638</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="H26" s="7">
         <v>3117</v>
@@ -5845,13 +5863,13 @@
         <v>3291419</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="M26" s="7">
         <v>6266</v>
@@ -5860,13 +5878,13 @@
         <v>6604057</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>71</v>
+        <v>354</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5881,13 +5899,13 @@
         <v>3394350</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H27" s="7">
         <v>3338</v>
@@ -5896,13 +5914,13 @@
         <v>3544542</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M27" s="7">
         <v>6569</v>
@@ -5911,18 +5929,18 @@
         <v>6938892</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -5943,7 +5961,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE957677-5A9C-438A-9DD9-1F2B01076228}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2448880D-CBBC-49D5-A8A4-BAFECCFD66F2}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5960,7 +5978,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6073,7 +6091,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -6088,7 +6106,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -6103,7 +6121,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6118,13 +6136,13 @@
         <v>2506</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>140</v>
+        <v>360</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="H5" s="7">
         <v>32</v>
@@ -6133,13 +6151,13 @@
         <v>14354</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>231</v>
+        <v>362</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="M5" s="7">
         <v>36</v>
@@ -6148,19 +6166,19 @@
         <v>16860</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" s="7">
         <v>114</v>
@@ -6169,13 +6187,13 @@
         <v>99476</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>148</v>
+        <v>370</v>
       </c>
       <c r="H6" s="7">
         <v>210</v>
@@ -6184,13 +6202,13 @@
         <v>116056</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>239</v>
+        <v>371</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>365</v>
+        <v>372</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>366</v>
+        <v>373</v>
       </c>
       <c r="M6" s="7">
         <v>324</v>
@@ -6199,13 +6217,13 @@
         <v>215532</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>367</v>
+        <v>374</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>368</v>
+        <v>375</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>369</v>
+        <v>376</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6220,13 +6238,13 @@
         <v>101982</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H7" s="7">
         <v>242</v>
@@ -6235,13 +6253,13 @@
         <v>130410</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M7" s="7">
         <v>360</v>
@@ -6250,18 +6268,18 @@
         <v>232392</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -6279,7 +6297,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="H8" s="7">
         <v>3</v>
@@ -6288,13 +6306,13 @@
         <v>27412</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>201</v>
+        <v>378</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="M8" s="7">
         <v>3</v>
@@ -6303,13 +6321,13 @@
         <v>27412</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>373</v>
+        <v>381</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>374</v>
+        <v>382</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6324,13 +6342,13 @@
         <v>28641</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>375</v>
+        <v>383</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>376</v>
+        <v>310</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>377</v>
+        <v>164</v>
       </c>
       <c r="H9" s="7">
         <v>112</v>
@@ -6339,13 +6357,13 @@
         <v>54022</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>379</v>
+        <v>86</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="M9" s="7">
         <v>153</v>
@@ -6354,19 +6372,19 @@
         <v>82664</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>379</v>
+        <v>86</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" s="7">
         <v>571</v>
@@ -6375,13 +6393,13 @@
         <v>521182</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>384</v>
+        <v>173</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>385</v>
+        <v>320</v>
       </c>
       <c r="H10" s="7">
         <v>883</v>
@@ -6390,13 +6408,13 @@
         <v>538533</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="M10" s="7">
         <v>1454</v>
@@ -6405,13 +6423,13 @@
         <v>1059714</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6426,13 +6444,13 @@
         <v>549823</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H11" s="7">
         <v>998</v>
@@ -6441,13 +6459,13 @@
         <v>619967</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M11" s="7">
         <v>1610</v>
@@ -6456,18 +6474,18 @@
         <v>1169790</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -6485,7 +6503,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="H12" s="7">
         <v>2</v>
@@ -6494,13 +6512,13 @@
         <v>1323</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="M12" s="7">
         <v>2</v>
@@ -6509,13 +6527,13 @@
         <v>1323</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="P12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6530,13 +6548,13 @@
         <v>39783</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>196</v>
+        <v>399</v>
       </c>
       <c r="H13" s="7">
         <v>158</v>
@@ -6545,13 +6563,13 @@
         <v>89591</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="M13" s="7">
         <v>215</v>
@@ -6560,19 +6578,19 @@
         <v>129374</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" s="7">
         <v>906</v>
@@ -6581,13 +6599,13 @@
         <v>998149</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>203</v>
+        <v>406</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="H14" s="7">
         <v>1354</v>
@@ -6596,13 +6614,13 @@
         <v>966977</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="M14" s="7">
         <v>2260</v>
@@ -6611,13 +6629,13 @@
         <v>1965126</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>406</v>
+        <v>411</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>407</v>
+        <v>152</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6632,13 +6650,13 @@
         <v>1037932</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H15" s="7">
         <v>1514</v>
@@ -6647,13 +6665,13 @@
         <v>1057891</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M15" s="7">
         <v>2477</v>
@@ -6662,18 +6680,18 @@
         <v>2095823</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -6691,7 +6709,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -6706,7 +6724,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -6721,7 +6739,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6736,13 +6754,13 @@
         <v>33010</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="H17" s="7">
         <v>96</v>
@@ -6751,13 +6769,13 @@
         <v>63215</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>377</v>
+        <v>164</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="M17" s="7">
         <v>134</v>
@@ -6766,19 +6784,19 @@
         <v>96225</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>145</v>
+        <v>419</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C18" s="7">
         <v>635</v>
@@ -6787,13 +6805,13 @@
         <v>692709</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="H18" s="7">
         <v>947</v>
@@ -6802,13 +6820,13 @@
         <v>809335</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>384</v>
+        <v>173</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="M18" s="7">
         <v>1582</v>
@@ -6817,13 +6835,13 @@
         <v>1502044</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>154</v>
+        <v>428</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6838,13 +6856,13 @@
         <v>725719</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H19" s="7">
         <v>1043</v>
@@ -6853,13 +6871,13 @@
         <v>872550</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M19" s="7">
         <v>1716</v>
@@ -6868,18 +6886,18 @@
         <v>1598269</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -6897,7 +6915,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -6906,13 +6924,13 @@
         <v>2762</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="M20" s="7">
         <v>1</v>
@@ -6921,13 +6939,13 @@
         <v>2762</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>425</v>
+        <v>431</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6942,13 +6960,13 @@
         <v>43434</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>428</v>
+        <v>311</v>
       </c>
       <c r="H21" s="7">
         <v>161</v>
@@ -6957,13 +6975,13 @@
         <v>113226</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="M21" s="7">
         <v>213</v>
@@ -6972,19 +6990,19 @@
         <v>156659</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>324</v>
+        <v>439</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C22" s="7">
         <v>953</v>
@@ -6993,13 +7011,13 @@
         <v>920866</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>435</v>
+        <v>319</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>436</v>
+        <v>441</v>
       </c>
       <c r="H22" s="7">
         <v>1396</v>
@@ -7008,13 +7026,13 @@
         <v>1032152</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>437</v>
+        <v>442</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="M22" s="7">
         <v>2349</v>
@@ -7023,13 +7041,13 @@
         <v>1953020</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>441</v>
+        <v>446</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7044,13 +7062,13 @@
         <v>964300</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H23" s="7">
         <v>1558</v>
@@ -7059,13 +7077,13 @@
         <v>1148140</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M23" s="7">
         <v>2563</v>
@@ -7074,13 +7092,13 @@
         <v>2112441</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7103,7 +7121,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="H24" s="7">
         <v>6</v>
@@ -7115,10 +7133,10 @@
         <v>15</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>443</v>
+        <v>448</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="M24" s="7">
         <v>6</v>
@@ -7127,13 +7145,13 @@
         <v>31497</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>445</v>
+        <v>450</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>447</v>
+        <v>452</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7148,13 +7166,13 @@
         <v>147374</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>448</v>
+        <v>453</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>449</v>
+        <v>454</v>
       </c>
       <c r="H25" s="7">
         <v>559</v>
@@ -7163,13 +7181,13 @@
         <v>334408</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>164</v>
+        <v>456</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>309</v>
+        <v>457</v>
       </c>
       <c r="M25" s="7">
         <v>751</v>
@@ -7178,19 +7196,19 @@
         <v>481782</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>451</v>
+        <v>458</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>452</v>
+        <v>459</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C26" s="7">
         <v>3179</v>
@@ -7199,13 +7217,13 @@
         <v>3232382</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>454</v>
+        <v>461</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>455</v>
+        <v>462</v>
       </c>
       <c r="H26" s="7">
         <v>4790</v>
@@ -7214,13 +7232,13 @@
         <v>3463055</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>456</v>
+        <v>463</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>457</v>
+        <v>464</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>458</v>
+        <v>465</v>
       </c>
       <c r="M26" s="7">
         <v>7969</v>
@@ -7229,13 +7247,13 @@
         <v>6695438</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>459</v>
+        <v>245</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>460</v>
+        <v>466</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>461</v>
+        <v>467</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7250,13 +7268,13 @@
         <v>3379756</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H27" s="7">
         <v>5355</v>
@@ -7265,13 +7283,13 @@
         <v>3828959</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M27" s="7">
         <v>8726</v>
@@ -7280,18 +7298,18 @@
         <v>7208716</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P1418-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P1418-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A49E1166-792C-4D88-B5DE-53F9D178D1D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1D18AB3A-366B-469B-9B36-3FED4BFEC274}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{8124F95D-F048-450D-8255-81EC20A0F1D6}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{B3588AB2-442E-4715-BE98-C94216B0E70D}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="413">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="350">
   <si>
     <t>Población con diagnóstico de mala circulación en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -68,1216 +68,1027 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>94,75%</t>
+  </si>
+  <si>
+    <t>92,78%</t>
+  </si>
+  <si>
+    <t>96,19%</t>
+  </si>
+  <si>
+    <t>91,43%</t>
+  </si>
+  <si>
+    <t>88,99%</t>
+  </si>
+  <si>
+    <t>93,24%</t>
+  </si>
+  <si>
+    <t>93,1%</t>
+  </si>
+  <si>
+    <t>91,57%</t>
+  </si>
+  <si>
+    <t>94,32%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>94,36%</t>
+  </si>
+  <si>
+    <t>92,65%</t>
+  </si>
+  <si>
+    <t>95,65%</t>
+  </si>
+  <si>
+    <t>90,34%</t>
+  </si>
+  <si>
+    <t>88,13%</t>
+  </si>
+  <si>
+    <t>92,15%</t>
+  </si>
+  <si>
+    <t>92,34%</t>
+  </si>
+  <si>
+    <t>90,95%</t>
+  </si>
+  <si>
+    <t>93,45%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>14,15%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>94,81%</t>
+  </si>
+  <si>
+    <t>92,81%</t>
+  </si>
+  <si>
+    <t>96,34%</t>
+  </si>
+  <si>
+    <t>88,63%</t>
+  </si>
+  <si>
+    <t>85,85%</t>
+  </si>
+  <si>
+    <t>90,71%</t>
+  </si>
+  <si>
+    <t>91,71%</t>
+  </si>
+  <si>
+    <t>89,98%</t>
+  </si>
+  <si>
+    <t>93,16%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>13,11%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>92,94%</t>
+  </si>
+  <si>
+    <t>95,73%</t>
+  </si>
+  <si>
+    <t>89,13%</t>
+  </si>
+  <si>
+    <t>86,89%</t>
+  </si>
+  <si>
+    <t>90,77%</t>
+  </si>
+  <si>
+    <t>91,62%</t>
+  </si>
+  <si>
+    <t>90,35%</t>
+  </si>
+  <si>
+    <t>92,76%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>94,53%</t>
+  </si>
+  <si>
+    <t>93,69%</t>
+  </si>
+  <si>
+    <t>95,24%</t>
+  </si>
+  <si>
+    <t>89,85%</t>
+  </si>
+  <si>
+    <t>88,79%</t>
+  </si>
+  <si>
+    <t>90,84%</t>
+  </si>
+  <si>
+    <t>91,51%</t>
+  </si>
+  <si>
+    <t>92,86%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de mala circulación en 2012 (Tasa respuesta: 99,95%)</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>12,56%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>96,99%</t>
+  </si>
+  <si>
+    <t>95,5%</t>
+  </si>
+  <si>
+    <t>98,03%</t>
+  </si>
+  <si>
+    <t>89,96%</t>
+  </si>
+  <si>
+    <t>87,44%</t>
+  </si>
+  <si>
+    <t>92,29%</t>
+  </si>
+  <si>
+    <t>93,49%</t>
+  </si>
+  <si>
+    <t>92,04%</t>
+  </si>
+  <si>
+    <t>94,82%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>96,32%</t>
+  </si>
+  <si>
+    <t>95,0%</t>
+  </si>
+  <si>
+    <t>97,42%</t>
+  </si>
+  <si>
+    <t>89,77%</t>
+  </si>
+  <si>
+    <t>87,82%</t>
+  </si>
+  <si>
+    <t>91,61%</t>
+  </si>
+  <si>
+    <t>93,03%</t>
+  </si>
+  <si>
+    <t>94,09%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>96,84%</t>
+  </si>
+  <si>
+    <t>94,98%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
+  </si>
+  <si>
+    <t>92,22%</t>
+  </si>
+  <si>
+    <t>90,19%</t>
+  </si>
+  <si>
+    <t>94,19%</t>
+  </si>
+  <si>
+    <t>94,5%</t>
+  </si>
+  <si>
+    <t>93,17%</t>
+  </si>
+  <si>
+    <t>95,57%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>97,44%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>89,52%</t>
+  </si>
+  <si>
+    <t>87,73%</t>
+  </si>
+  <si>
+    <t>91,25%</t>
+  </si>
+  <si>
+    <t>93,28%</t>
+  </si>
+  <si>
+    <t>92,03%</t>
+  </si>
+  <si>
+    <t>94,33%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>96,88%</t>
+  </si>
+  <si>
+    <t>96,22%</t>
+  </si>
+  <si>
+    <t>97,49%</t>
+  </si>
+  <si>
+    <t>90,27%</t>
+  </si>
+  <si>
+    <t>89,22%</t>
+  </si>
+  <si>
+    <t>91,2%</t>
+  </si>
+  <si>
+    <t>93,51%</t>
+  </si>
+  <si>
+    <t>92,88%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de mala circulación en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>96,61%</t>
+  </si>
+  <si>
+    <t>95,16%</t>
+  </si>
+  <si>
+    <t>97,84%</t>
+  </si>
+  <si>
+    <t>92,19%</t>
+  </si>
+  <si>
+    <t>89,95%</t>
+  </si>
+  <si>
+    <t>94,39%</t>
+  </si>
+  <si>
+    <t>94,4%</t>
+  </si>
+  <si>
+    <t>92,97%</t>
+  </si>
+  <si>
+    <t>95,47%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>97,6%</t>
+  </si>
+  <si>
+    <t>96,46%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>93,72%</t>
+  </si>
+  <si>
+    <t>92,14%</t>
+  </si>
+  <si>
+    <t>95,29%</t>
+  </si>
+  <si>
+    <t>95,64%</t>
+  </si>
+  <si>
+    <t>94,66%</t>
+  </si>
+  <si>
+    <t>96,49%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
+  </si>
+  <si>
+    <t>96,31%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>92,46%</t>
+  </si>
+  <si>
+    <t>90,14%</t>
+  </si>
+  <si>
+    <t>94,24%</t>
+  </si>
+  <si>
+    <t>95,04%</t>
+  </si>
+  <si>
+    <t>93,79%</t>
+  </si>
+  <si>
+    <t>96,18%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
   </si>
   <si>
     <t>7,28%</t>
   </si>
   <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>18,06%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>97,32%</t>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>98,21%</t>
+  </si>
+  <si>
+    <t>97,05%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
   </si>
   <si>
     <t>92,72%</t>
   </si>
   <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>88,5%</t>
-  </si>
-  <si>
-    <t>81,94%</t>
-  </si>
-  <si>
-    <t>93,4%</t>
-  </si>
-  <si>
-    <t>92,96%</t>
-  </si>
-  <si>
-    <t>88,85%</t>
-  </si>
-  <si>
-    <t>95,78%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>94,24%</t>
-  </si>
-  <si>
-    <t>91,93%</t>
-  </si>
-  <si>
-    <t>95,88%</t>
-  </si>
-  <si>
-    <t>92,01%</t>
-  </si>
-  <si>
-    <t>89,63%</t>
-  </si>
-  <si>
-    <t>93,98%</t>
-  </si>
-  <si>
-    <t>93,13%</t>
-  </si>
-  <si>
-    <t>91,5%</t>
-  </si>
-  <si>
-    <t>94,29%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>94,36%</t>
-  </si>
-  <si>
-    <t>92,65%</t>
-  </si>
-  <si>
-    <t>95,65%</t>
-  </si>
-  <si>
-    <t>90,34%</t>
-  </si>
-  <si>
-    <t>88,13%</t>
-  </si>
-  <si>
-    <t>92,15%</t>
-  </si>
-  <si>
-    <t>92,34%</t>
-  </si>
-  <si>
-    <t>90,95%</t>
-  </si>
-  <si>
-    <t>93,45%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>14,15%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>94,81%</t>
-  </si>
-  <si>
-    <t>92,81%</t>
-  </si>
-  <si>
-    <t>96,34%</t>
-  </si>
-  <si>
-    <t>88,63%</t>
-  </si>
-  <si>
-    <t>85,85%</t>
-  </si>
-  <si>
-    <t>90,71%</t>
-  </si>
-  <si>
-    <t>91,71%</t>
-  </si>
-  <si>
-    <t>89,98%</t>
-  </si>
-  <si>
-    <t>93,16%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>13,11%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>92,94%</t>
-  </si>
-  <si>
-    <t>95,73%</t>
-  </si>
-  <si>
-    <t>89,13%</t>
-  </si>
-  <si>
-    <t>86,89%</t>
-  </si>
-  <si>
-    <t>90,77%</t>
-  </si>
-  <si>
-    <t>91,62%</t>
-  </si>
-  <si>
-    <t>90,35%</t>
-  </si>
-  <si>
-    <t>92,76%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>94,53%</t>
-  </si>
-  <si>
-    <t>93,69%</t>
-  </si>
-  <si>
-    <t>95,24%</t>
-  </si>
-  <si>
-    <t>89,85%</t>
-  </si>
-  <si>
-    <t>88,79%</t>
-  </si>
-  <si>
-    <t>90,84%</t>
-  </si>
-  <si>
-    <t>91,51%</t>
-  </si>
-  <si>
-    <t>92,86%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de mala circulación en 2012 (Tasa respuesta: 99,95%)</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>20,22%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>97,09%</t>
-  </si>
-  <si>
-    <t>92,33%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>87,75%</t>
-  </si>
-  <si>
-    <t>79,78%</t>
-  </si>
-  <si>
-    <t>93,12%</t>
-  </si>
-  <si>
-    <t>92,5%</t>
-  </si>
-  <si>
-    <t>88,21%</t>
-  </si>
-  <si>
-    <t>95,67%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
+    <t>90,93%</t>
+  </si>
+  <si>
+    <t>94,22%</t>
+  </si>
+  <si>
+    <t>95,32%</t>
+  </si>
+  <si>
+    <t>96,28%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>97,59%</t>
+  </si>
+  <si>
+    <t>97,0%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>91,94%</t>
+  </si>
+  <si>
+    <t>95,17%</t>
+  </si>
+  <si>
+    <t>94,61%</t>
+  </si>
+  <si>
+    <t>95,76%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de mala circulación en 2023 (Tasa respuesta: 99,74%)</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>93,38%</t>
+  </si>
+  <si>
+    <t>96,63%</t>
+  </si>
+  <si>
+    <t>90,56%</t>
+  </si>
+  <si>
+    <t>89,0%</t>
+  </si>
+  <si>
+    <t>92,09%</t>
+  </si>
+  <si>
+    <t>92,87%</t>
+  </si>
+  <si>
+    <t>93,94%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
+  </si>
+  <si>
+    <t>95,61%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
+  </si>
+  <si>
+    <t>91,47%</t>
+  </si>
+  <si>
+    <t>90,13%</t>
+  </si>
+  <si>
+    <t>92,7%</t>
+  </si>
+  <si>
+    <t>94,49%</t>
+  </si>
+  <si>
+    <t>93,44%</t>
+  </si>
+  <si>
+    <t>96,27%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
   </si>
   <si>
     <t>6,32%</t>
   </si>
   <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>96,97%</t>
-  </si>
-  <si>
-    <t>95,31%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
-  </si>
-  <si>
-    <t>90,38%</t>
-  </si>
-  <si>
-    <t>87,79%</t>
-  </si>
-  <si>
-    <t>92,57%</t>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>95,54%</t>
   </si>
   <si>
     <t>93,68%</t>
   </si>
   <si>
-    <t>91,98%</t>
-  </si>
-  <si>
-    <t>95,07%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>96,32%</t>
-  </si>
-  <si>
-    <t>95,0%</t>
-  </si>
-  <si>
-    <t>97,42%</t>
-  </si>
-  <si>
-    <t>89,77%</t>
-  </si>
-  <si>
-    <t>87,82%</t>
-  </si>
-  <si>
-    <t>91,61%</t>
-  </si>
-  <si>
-    <t>93,03%</t>
-  </si>
-  <si>
-    <t>94,09%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>96,84%</t>
-  </si>
-  <si>
-    <t>94,98%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>92,22%</t>
-  </si>
-  <si>
-    <t>90,19%</t>
-  </si>
-  <si>
-    <t>94,19%</t>
-  </si>
-  <si>
-    <t>94,5%</t>
-  </si>
-  <si>
-    <t>93,17%</t>
-  </si>
-  <si>
-    <t>95,57%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>97,44%</t>
-  </si>
-  <si>
-    <t>96,19%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>89,52%</t>
-  </si>
-  <si>
-    <t>87,73%</t>
-  </si>
-  <si>
-    <t>91,25%</t>
-  </si>
-  <si>
-    <t>93,28%</t>
-  </si>
-  <si>
-    <t>92,03%</t>
-  </si>
-  <si>
-    <t>94,33%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>96,88%</t>
-  </si>
-  <si>
-    <t>96,22%</t>
-  </si>
-  <si>
-    <t>97,49%</t>
-  </si>
-  <si>
-    <t>90,27%</t>
-  </si>
-  <si>
-    <t>89,22%</t>
-  </si>
-  <si>
-    <t>91,2%</t>
-  </si>
-  <si>
-    <t>93,51%</t>
-  </si>
-  <si>
-    <t>92,88%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de mala circulación en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>11,91%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>93,93%</t>
-  </si>
-  <si>
-    <t>88,09%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>93,74%</t>
-  </si>
-  <si>
-    <t>87,28%</t>
-  </si>
-  <si>
-    <t>97,13%</t>
-  </si>
-  <si>
-    <t>93,83%</t>
-  </si>
-  <si>
-    <t>90,01%</t>
-  </si>
-  <si>
-    <t>96,63%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>10,75%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>97,17%</t>
-  </si>
-  <si>
-    <t>95,58%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
-  </si>
-  <si>
-    <t>91,88%</t>
-  </si>
-  <si>
-    <t>89,25%</t>
-  </si>
-  <si>
-    <t>94,52%</t>
-  </si>
-  <si>
-    <t>92,89%</t>
-  </si>
-  <si>
-    <t>95,72%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>97,6%</t>
-  </si>
-  <si>
-    <t>96,46%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>93,72%</t>
-  </si>
-  <si>
-    <t>92,14%</t>
-  </si>
-  <si>
-    <t>95,29%</t>
-  </si>
-  <si>
-    <t>95,64%</t>
-  </si>
-  <si>
-    <t>94,66%</t>
-  </si>
-  <si>
-    <t>96,49%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>97,7%</t>
-  </si>
-  <si>
-    <t>96,31%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>92,46%</t>
-  </si>
-  <si>
-    <t>90,14%</t>
-  </si>
-  <si>
-    <t>95,04%</t>
-  </si>
-  <si>
-    <t>93,79%</t>
-  </si>
-  <si>
-    <t>96,18%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
-  </si>
-  <si>
-    <t>97,05%</t>
-  </si>
-  <si>
-    <t>98,91%</t>
-  </si>
-  <si>
-    <t>90,93%</t>
-  </si>
-  <si>
-    <t>94,22%</t>
-  </si>
-  <si>
-    <t>95,32%</t>
-  </si>
-  <si>
-    <t>94,32%</t>
-  </si>
-  <si>
-    <t>96,28%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>97,59%</t>
-  </si>
-  <si>
-    <t>97,0%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>91,94%</t>
-  </si>
-  <si>
-    <t>95,17%</t>
-  </si>
-  <si>
-    <t>94,61%</t>
-  </si>
-  <si>
-    <t>95,76%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de mala circulación en 2023 (Tasa respuesta: 99,74%)</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>15,55%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>97,54%</t>
-  </si>
-  <si>
-    <t>93,66%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>88,99%</t>
-  </si>
-  <si>
-    <t>84,45%</t>
-  </si>
-  <si>
-    <t>92,61%</t>
-  </si>
-  <si>
-    <t>92,75%</t>
-  </si>
-  <si>
-    <t>90,16%</t>
-  </si>
-  <si>
-    <t>94,89%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>94,79%</t>
-  </si>
-  <si>
-    <t>92,73%</t>
-  </si>
-  <si>
-    <t>90,88%</t>
-  </si>
-  <si>
-    <t>89,06%</t>
-  </si>
-  <si>
-    <t>92,42%</t>
-  </si>
-  <si>
-    <t>91,31%</t>
-  </si>
-  <si>
-    <t>93,8%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>96,17%</t>
-  </si>
-  <si>
-    <t>94,87%</t>
-  </si>
-  <si>
-    <t>91,52%</t>
-  </si>
-  <si>
-    <t>90,21%</t>
-  </si>
-  <si>
-    <t>92,74%</t>
-  </si>
-  <si>
-    <t>93,82%</t>
-  </si>
-  <si>
-    <t>92,8%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
+    <t>96,78%</t>
+  </si>
+  <si>
+    <t>93,76%</t>
+  </si>
+  <si>
+    <t>91,37%</t>
+  </si>
+  <si>
+    <t>96,66%</t>
+  </si>
+  <si>
+    <t>93,02%</t>
+  </si>
+  <si>
+    <t>96,41%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>95,56%</t>
+  </si>
+  <si>
+    <t>93,84%</t>
+  </si>
+  <si>
+    <t>96,69%</t>
+  </si>
+  <si>
+    <t>90,9%</t>
+  </si>
+  <si>
+    <t>88,83%</t>
+  </si>
+  <si>
+    <t>92,82%</t>
+  </si>
+  <si>
+    <t>93,04%</t>
+  </si>
+  <si>
+    <t>91,73%</t>
+  </si>
+  <si>
+    <t>94,08%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
   </si>
   <si>
     <t>4,75%</t>
   </si>
   <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>95,45%</t>
-  </si>
-  <si>
-    <t>93,57%</t>
-  </si>
-  <si>
-    <t>96,73%</t>
-  </si>
-  <si>
-    <t>90,86%</t>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>95,98%</t>
   </si>
   <si>
     <t>95,25%</t>
   </si>
   <si>
-    <t>92,55%</t>
-  </si>
-  <si>
-    <t>95,35%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>12,43%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>95,5%</t>
-  </si>
-  <si>
-    <t>93,86%</t>
-  </si>
-  <si>
-    <t>90,11%</t>
-  </si>
-  <si>
-    <t>87,57%</t>
-  </si>
-  <si>
-    <t>91,65%</t>
-  </si>
-  <si>
-    <t>93,61%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>94,96%</t>
-  </si>
-  <si>
-    <t>96,29%</t>
-  </si>
-  <si>
-    <t>91,19%</t>
-  </si>
-  <si>
-    <t>90,23%</t>
-  </si>
-  <si>
-    <t>93,29%</t>
-  </si>
-  <si>
-    <t>92,71%</t>
-  </si>
-  <si>
-    <t>93,88%</t>
+    <t>93,2%</t>
+  </si>
+  <si>
+    <t>93,15%</t>
+  </si>
+  <si>
+    <t>94,65%</t>
   </si>
 </sst>
 </file>
@@ -1689,8 +1500,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E66B200-1499-4375-B3B7-8D82EE7DD7AF}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7D21B1F-6C53-4F6D-8A98-7789920D0951}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1807,10 +1618,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="D4" s="7">
-        <v>3087</v>
+        <v>36441</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1822,10 +1633,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="I4" s="7">
-        <v>12972</v>
+        <v>58965</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1837,10 +1648,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>17</v>
+        <v>96</v>
       </c>
       <c r="N4" s="7">
-        <v>16059</v>
+        <v>95406</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1858,10 +1669,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>102</v>
+        <v>646</v>
       </c>
       <c r="D5" s="7">
-        <v>112271</v>
+        <v>657571</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1873,10 +1684,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>114</v>
+        <v>637</v>
       </c>
       <c r="I5" s="7">
-        <v>99783</v>
+        <v>629386</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1888,10 +1699,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>216</v>
+        <v>1283</v>
       </c>
       <c r="N5" s="7">
-        <v>212054</v>
+        <v>1286957</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1909,10 +1720,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>105</v>
+        <v>683</v>
       </c>
       <c r="D6" s="7">
-        <v>115358</v>
+        <v>694012</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1924,10 +1735,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>128</v>
+        <v>696</v>
       </c>
       <c r="I6" s="7">
-        <v>112755</v>
+        <v>688351</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1939,10 +1750,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>233</v>
+        <v>1379</v>
       </c>
       <c r="N6" s="7">
-        <v>228113</v>
+        <v>1382363</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1962,10 +1773,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="D7" s="7">
-        <v>33354</v>
+        <v>54273</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1977,10 +1788,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>45</v>
+        <v>86</v>
       </c>
       <c r="I7" s="7">
-        <v>45994</v>
+        <v>93523</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1992,10 +1803,10 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>79</v>
+        <v>139</v>
       </c>
       <c r="N7" s="7">
-        <v>79347</v>
+        <v>147796</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -2013,10 +1824,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>544</v>
+        <v>843</v>
       </c>
       <c r="D8" s="7">
-        <v>545300</v>
+        <v>907527</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -2028,10 +1839,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>523</v>
+        <v>822</v>
       </c>
       <c r="I8" s="7">
-        <v>529602</v>
+        <v>874870</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -2043,10 +1854,10 @@
         <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>1067</v>
+        <v>1665</v>
       </c>
       <c r="N8" s="7">
-        <v>1074903</v>
+        <v>1782397</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -2064,10 +1875,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>578</v>
+        <v>896</v>
       </c>
       <c r="D9" s="7">
-        <v>578654</v>
+        <v>961800</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -2079,10 +1890,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>568</v>
+        <v>908</v>
       </c>
       <c r="I9" s="7">
-        <v>575596</v>
+        <v>968393</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -2094,10 +1905,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1146</v>
+        <v>1804</v>
       </c>
       <c r="N9" s="7">
-        <v>1154250</v>
+        <v>1930193</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -2117,10 +1928,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="D10" s="7">
-        <v>54273</v>
+        <v>35242</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -2132,10 +1943,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="I10" s="7">
-        <v>93523</v>
+        <v>77734</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -2147,10 +1958,10 @@
         <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>139</v>
+        <v>112</v>
       </c>
       <c r="N10" s="7">
-        <v>147796</v>
+        <v>112976</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -2168,10 +1979,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>843</v>
+        <v>607</v>
       </c>
       <c r="D11" s="7">
-        <v>907527</v>
+        <v>643267</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -2183,10 +1994,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>822</v>
+        <v>618</v>
       </c>
       <c r="I11" s="7">
-        <v>874870</v>
+        <v>606107</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -2198,10 +2009,10 @@
         <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>1665</v>
+        <v>1225</v>
       </c>
       <c r="N11" s="7">
-        <v>1782397</v>
+        <v>1249374</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -2219,10 +2030,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>896</v>
+        <v>641</v>
       </c>
       <c r="D12" s="7">
-        <v>961800</v>
+        <v>678509</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -2234,10 +2045,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>908</v>
+        <v>696</v>
       </c>
       <c r="I12" s="7">
-        <v>968393</v>
+        <v>683841</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -2249,10 +2060,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1804</v>
+        <v>1337</v>
       </c>
       <c r="N12" s="7">
-        <v>1930193</v>
+        <v>1362350</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -2272,49 +2083,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="D13" s="7">
-        <v>35242</v>
+        <v>53127</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="H13" s="7">
+        <v>108</v>
+      </c>
+      <c r="I13" s="7">
+        <v>112929</v>
+      </c>
+      <c r="J13" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="H13" s="7">
-        <v>78</v>
-      </c>
-      <c r="I13" s="7">
-        <v>77734</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="K13" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="L13" s="7" t="s">
+      <c r="M13" s="7">
+        <v>167</v>
+      </c>
+      <c r="N13" s="7">
+        <v>166057</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="M13" s="7">
-        <v>112</v>
-      </c>
-      <c r="N13" s="7">
-        <v>112976</v>
-      </c>
-      <c r="O13" s="7" t="s">
+      <c r="P13" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2323,49 +2134,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>607</v>
+        <v>935</v>
       </c>
       <c r="D14" s="7">
-        <v>643267</v>
+        <v>889095</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="H14" s="7">
+        <v>889</v>
+      </c>
+      <c r="I14" s="7">
+        <v>925683</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="H14" s="7">
-        <v>618</v>
-      </c>
-      <c r="I14" s="7">
-        <v>606107</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>1824</v>
+      </c>
+      <c r="N14" s="7">
+        <v>1814777</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="L14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="M14" s="7">
-        <v>1225</v>
-      </c>
-      <c r="N14" s="7">
-        <v>1249374</v>
-      </c>
-      <c r="O14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2374,10 +2185,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>641</v>
+        <v>994</v>
       </c>
       <c r="D15" s="7">
-        <v>678509</v>
+        <v>942222</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -2389,10 +2200,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>696</v>
+        <v>997</v>
       </c>
       <c r="I15" s="7">
-        <v>683841</v>
+        <v>1038612</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -2404,10 +2215,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1337</v>
+        <v>1991</v>
       </c>
       <c r="N15" s="7">
-        <v>1362350</v>
+        <v>1980834</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -2421,55 +2232,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>59</v>
+        <v>183</v>
       </c>
       <c r="D16" s="7">
-        <v>53127</v>
+        <v>179083</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>51</v>
+        <v>86</v>
       </c>
       <c r="F16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="H16" s="7">
+        <v>331</v>
+      </c>
+      <c r="I16" s="7">
+        <v>343152</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="H16" s="7">
-        <v>108</v>
-      </c>
-      <c r="I16" s="7">
-        <v>112929</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>514</v>
+      </c>
+      <c r="N16" s="7">
+        <v>522235</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="M16" s="7">
-        <v>167</v>
-      </c>
-      <c r="N16" s="7">
-        <v>166057</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2478,49 +2289,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>935</v>
+        <v>3031</v>
       </c>
       <c r="D17" s="7">
-        <v>889095</v>
+        <v>3097460</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>60</v>
+        <v>94</v>
       </c>
       <c r="F17" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="H17" s="7">
+        <v>2966</v>
+      </c>
+      <c r="I17" s="7">
+        <v>3036045</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="H17" s="7">
-        <v>889</v>
-      </c>
-      <c r="I17" s="7">
-        <v>925683</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>5997</v>
+      </c>
+      <c r="N17" s="7">
+        <v>6133506</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="M17" s="7">
-        <v>1824</v>
-      </c>
-      <c r="N17" s="7">
-        <v>1814777</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2529,10 +2340,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>994</v>
+        <v>3214</v>
       </c>
       <c r="D18" s="7">
-        <v>942222</v>
+        <v>3276543</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -2544,10 +2355,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>997</v>
+        <v>3297</v>
       </c>
       <c r="I18" s="7">
-        <v>1038612</v>
+        <v>3379197</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -2559,10 +2370,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1991</v>
+        <v>6511</v>
       </c>
       <c r="N18" s="7">
-        <v>1980834</v>
+        <v>6655741</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -2575,171 +2386,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>183</v>
-      </c>
-      <c r="D19" s="7">
-        <v>179083</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="H19" s="7">
-        <v>331</v>
-      </c>
-      <c r="I19" s="7">
-        <v>343152</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="M19" s="7">
-        <v>514</v>
-      </c>
-      <c r="N19" s="7">
-        <v>522235</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>3031</v>
-      </c>
-      <c r="D20" s="7">
-        <v>3097461</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="H20" s="7">
-        <v>2966</v>
-      </c>
-      <c r="I20" s="7">
-        <v>3036046</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="M20" s="7">
-        <v>5997</v>
-      </c>
-      <c r="N20" s="7">
-        <v>6133505</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3214</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3276544</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3297</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3379198</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>6511</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6655740</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>121</v>
+      <c r="A19" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2752,8 +2407,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D38B447-660F-4B0D-85DD-30314492D5A2}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AA60E25-F612-4CFE-B5C6-3BCBBF28D1BC}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2769,7 +2424,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2870,49 +2525,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="D4" s="7">
-        <v>3368</v>
+        <v>21195</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>123</v>
+        <v>104</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>125</v>
+        <v>106</v>
       </c>
       <c r="H4" s="7">
-        <v>12</v>
+        <v>63</v>
       </c>
       <c r="I4" s="7">
-        <v>13710</v>
+        <v>69979</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>128</v>
+        <v>109</v>
       </c>
       <c r="M4" s="7">
-        <v>16</v>
+        <v>84</v>
       </c>
       <c r="N4" s="7">
-        <v>17078</v>
+        <v>91175</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>131</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2921,49 +2576,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
+        <v>653</v>
+      </c>
+      <c r="D5" s="7">
+        <v>682274</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="H5" s="7">
+        <v>587</v>
+      </c>
+      <c r="I5" s="7">
+        <v>627071</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="D5" s="7">
-        <v>112397</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="H5" s="7">
-        <v>87</v>
-      </c>
-      <c r="I5" s="7">
-        <v>98195</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>137</v>
-      </c>
       <c r="M5" s="7">
-        <v>205</v>
+        <v>1240</v>
       </c>
       <c r="N5" s="7">
-        <v>210592</v>
+        <v>1309344</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>138</v>
+        <v>119</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>139</v>
+        <v>120</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>140</v>
+        <v>121</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2972,10 +2627,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>122</v>
+        <v>674</v>
       </c>
       <c r="D6" s="7">
-        <v>115765</v>
+        <v>703469</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -2987,10 +2642,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>99</v>
+        <v>650</v>
       </c>
       <c r="I6" s="7">
-        <v>111905</v>
+        <v>697050</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3002,10 +2657,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>221</v>
+        <v>1324</v>
       </c>
       <c r="N6" s="7">
-        <v>227670</v>
+        <v>1400519</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -3025,49 +2680,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="D7" s="7">
-        <v>17827</v>
+        <v>37462</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>141</v>
+        <v>122</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>142</v>
+        <v>123</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="H7" s="7">
-        <v>51</v>
+        <v>96</v>
       </c>
       <c r="I7" s="7">
-        <v>56270</v>
+        <v>105279</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>145</v>
+        <v>126</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="M7" s="7">
-        <v>68</v>
+        <v>131</v>
       </c>
       <c r="N7" s="7">
-        <v>74097</v>
+        <v>142741</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>147</v>
+        <v>128</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>149</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3076,49 +2731,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>535</v>
+        <v>901</v>
       </c>
       <c r="D8" s="7">
-        <v>569877</v>
+        <v>980485</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>151</v>
+        <v>131</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>152</v>
+        <v>132</v>
       </c>
       <c r="H8" s="7">
-        <v>500</v>
+        <v>842</v>
       </c>
       <c r="I8" s="7">
-        <v>528875</v>
+        <v>923694</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>153</v>
+        <v>133</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>154</v>
+        <v>134</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>155</v>
+        <v>135</v>
       </c>
       <c r="M8" s="7">
-        <v>1035</v>
+        <v>1743</v>
       </c>
       <c r="N8" s="7">
-        <v>1098752</v>
+        <v>1904180</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>156</v>
+        <v>136</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>157</v>
+        <v>66</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>158</v>
+        <v>137</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3127,10 +2782,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>552</v>
+        <v>936</v>
       </c>
       <c r="D9" s="7">
-        <v>587704</v>
+        <v>1017947</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3142,10 +2797,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>551</v>
+        <v>938</v>
       </c>
       <c r="I9" s="7">
-        <v>585145</v>
+        <v>1028973</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3157,10 +2812,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1103</v>
+        <v>1874</v>
       </c>
       <c r="N9" s="7">
-        <v>1172849</v>
+        <v>2046921</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3180,49 +2835,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="D10" s="7">
-        <v>37462</v>
+        <v>23964</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>159</v>
+        <v>138</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>160</v>
+        <v>139</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>161</v>
+        <v>140</v>
       </c>
       <c r="H10" s="7">
-        <v>96</v>
+        <v>54</v>
       </c>
       <c r="I10" s="7">
-        <v>105279</v>
+        <v>60478</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>162</v>
+        <v>141</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>163</v>
+        <v>142</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>164</v>
+        <v>143</v>
       </c>
       <c r="M10" s="7">
-        <v>131</v>
+        <v>73</v>
       </c>
       <c r="N10" s="7">
-        <v>142741</v>
+        <v>84442</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>165</v>
+        <v>144</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>166</v>
+        <v>145</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>76</v>
+        <v>146</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3231,49 +2886,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>901</v>
+        <v>670</v>
       </c>
       <c r="D11" s="7">
-        <v>980485</v>
+        <v>733659</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>167</v>
+        <v>147</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>168</v>
+        <v>148</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>169</v>
+        <v>149</v>
       </c>
       <c r="H11" s="7">
-        <v>842</v>
+        <v>651</v>
       </c>
       <c r="I11" s="7">
-        <v>923694</v>
+        <v>716696</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>171</v>
+        <v>151</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>172</v>
+        <v>152</v>
       </c>
       <c r="M11" s="7">
-        <v>1743</v>
+        <v>1321</v>
       </c>
       <c r="N11" s="7">
-        <v>1904179</v>
+        <v>1450355</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>173</v>
+        <v>153</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>85</v>
+        <v>154</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3282,10 +2937,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>936</v>
+        <v>689</v>
       </c>
       <c r="D12" s="7">
-        <v>1017947</v>
+        <v>757623</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -3297,10 +2952,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>938</v>
+        <v>705</v>
       </c>
       <c r="I12" s="7">
-        <v>1028973</v>
+        <v>777174</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3312,10 +2967,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1874</v>
+        <v>1394</v>
       </c>
       <c r="N12" s="7">
-        <v>2046920</v>
+        <v>1534797</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -3335,49 +2990,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D13" s="7">
-        <v>23964</v>
+        <v>24270</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>175</v>
+        <v>156</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>176</v>
+        <v>157</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>177</v>
+        <v>12</v>
       </c>
       <c r="H13" s="7">
-        <v>54</v>
+        <v>105</v>
       </c>
       <c r="I13" s="7">
-        <v>60478</v>
+        <v>110095</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>178</v>
+        <v>158</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>179</v>
+        <v>159</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="M13" s="7">
-        <v>73</v>
+        <v>128</v>
       </c>
       <c r="N13" s="7">
-        <v>84442</v>
+        <v>134366</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>181</v>
+        <v>161</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>182</v>
+        <v>162</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>183</v>
+        <v>163</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3386,49 +3041,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>670</v>
+        <v>887</v>
       </c>
       <c r="D14" s="7">
-        <v>733659</v>
+        <v>923469</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>184</v>
+        <v>164</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>185</v>
+        <v>23</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>186</v>
+        <v>165</v>
       </c>
       <c r="H14" s="7">
-        <v>651</v>
+        <v>897</v>
       </c>
       <c r="I14" s="7">
-        <v>716696</v>
+        <v>940760</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>187</v>
+        <v>166</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>188</v>
+        <v>167</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>189</v>
+        <v>168</v>
       </c>
       <c r="M14" s="7">
-        <v>1321</v>
+        <v>1784</v>
       </c>
       <c r="N14" s="7">
-        <v>1450355</v>
+        <v>1864228</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>190</v>
+        <v>169</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>191</v>
+        <v>170</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>192</v>
+        <v>171</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3437,10 +3092,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>689</v>
+        <v>910</v>
       </c>
       <c r="D15" s="7">
-        <v>757623</v>
+        <v>947739</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -3452,10 +3107,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>705</v>
+        <v>1002</v>
       </c>
       <c r="I15" s="7">
-        <v>777174</v>
+        <v>1050855</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -3467,10 +3122,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1394</v>
+        <v>1912</v>
       </c>
       <c r="N15" s="7">
-        <v>1534797</v>
+        <v>1998594</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -3484,55 +3139,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>23</v>
+        <v>98</v>
       </c>
       <c r="D16" s="7">
-        <v>24270</v>
+        <v>106891</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>193</v>
+        <v>172</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>194</v>
+        <v>173</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>195</v>
+        <v>174</v>
       </c>
       <c r="H16" s="7">
-        <v>105</v>
+        <v>318</v>
       </c>
       <c r="I16" s="7">
-        <v>110095</v>
+        <v>345832</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>196</v>
+        <v>175</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>197</v>
+        <v>176</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
       <c r="M16" s="7">
-        <v>128</v>
+        <v>416</v>
       </c>
       <c r="N16" s="7">
-        <v>134366</v>
+        <v>452724</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>199</v>
+        <v>178</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>200</v>
+        <v>129</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>201</v>
+        <v>179</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3541,49 +3196,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>887</v>
+        <v>3111</v>
       </c>
       <c r="D17" s="7">
-        <v>923469</v>
+        <v>3319888</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>202</v>
+        <v>180</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>203</v>
+        <v>181</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>204</v>
+        <v>182</v>
       </c>
       <c r="H17" s="7">
-        <v>897</v>
+        <v>2977</v>
       </c>
       <c r="I17" s="7">
-        <v>940759</v>
+        <v>3208220</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>205</v>
+        <v>183</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>206</v>
+        <v>184</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>207</v>
+        <v>185</v>
       </c>
       <c r="M17" s="7">
-        <v>1784</v>
+        <v>6088</v>
       </c>
       <c r="N17" s="7">
-        <v>1864228</v>
+        <v>6528107</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>208</v>
+        <v>186</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>209</v>
+        <v>187</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>210</v>
+        <v>137</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3592,10 +3247,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>910</v>
+        <v>3209</v>
       </c>
       <c r="D18" s="7">
-        <v>947739</v>
+        <v>3426779</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -3607,10 +3262,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>1002</v>
+        <v>3295</v>
       </c>
       <c r="I18" s="7">
-        <v>1050854</v>
+        <v>3554052</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -3622,10 +3277,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1912</v>
+        <v>6504</v>
       </c>
       <c r="N18" s="7">
-        <v>1998594</v>
+        <v>6980831</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -3638,171 +3293,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>98</v>
-      </c>
-      <c r="D19" s="7">
-        <v>106891</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="H19" s="7">
-        <v>318</v>
-      </c>
-      <c r="I19" s="7">
-        <v>345832</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="M19" s="7">
-        <v>416</v>
-      </c>
-      <c r="N19" s="7">
-        <v>452724</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>3111</v>
-      </c>
-      <c r="D20" s="7">
-        <v>3319888</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="H20" s="7">
-        <v>2977</v>
-      </c>
-      <c r="I20" s="7">
-        <v>3208220</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="M20" s="7">
-        <v>6088</v>
-      </c>
-      <c r="N20" s="7">
-        <v>6528106</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3209</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3426779</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3295</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3554052</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>6504</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6980830</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>121</v>
+      <c r="A19" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3815,8 +3314,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4D13445-021A-48FD-9489-A8FF6E40D110}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D15C99C6-6C21-4886-94B6-581456EA2604}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3832,7 +3331,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>227</v>
+        <v>188</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3933,49 +3432,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="D4" s="7">
-        <v>7079</v>
+        <v>22889</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>228</v>
+        <v>189</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>229</v>
+        <v>190</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>230</v>
+        <v>191</v>
       </c>
       <c r="H4" s="7">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="I4" s="7">
-        <v>7098</v>
+        <v>52516</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>231</v>
+        <v>192</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>232</v>
+        <v>193</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>233</v>
+        <v>194</v>
       </c>
       <c r="M4" s="7">
-        <v>14</v>
+        <v>72</v>
       </c>
       <c r="N4" s="7">
-        <v>14177</v>
+        <v>75405</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>234</v>
+        <v>195</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>235</v>
+        <v>196</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3984,49 +3483,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>106</v>
+        <v>629</v>
       </c>
       <c r="D5" s="7">
-        <v>109467</v>
+        <v>651911</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>237</v>
+        <v>198</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>238</v>
+        <v>199</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>239</v>
+        <v>200</v>
       </c>
       <c r="H5" s="7">
-        <v>108</v>
+        <v>617</v>
       </c>
       <c r="I5" s="7">
-        <v>106262</v>
+        <v>620323</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>240</v>
+        <v>201</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>241</v>
+        <v>202</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>242</v>
+        <v>203</v>
       </c>
       <c r="M5" s="7">
-        <v>214</v>
+        <v>1246</v>
       </c>
       <c r="N5" s="7">
-        <v>215729</v>
+        <v>1272234</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>243</v>
+        <v>204</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>244</v>
+        <v>205</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>245</v>
+        <v>206</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4035,10 +3534,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>113</v>
+        <v>652</v>
       </c>
       <c r="D6" s="7">
-        <v>116546</v>
+        <v>674800</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -4050,10 +3549,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>115</v>
+        <v>666</v>
       </c>
       <c r="I6" s="7">
-        <v>113360</v>
+        <v>672839</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -4065,10 +3564,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>228</v>
+        <v>1318</v>
       </c>
       <c r="N6" s="7">
-        <v>229906</v>
+        <v>1347639</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -4088,49 +3587,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D7" s="7">
-        <v>15810</v>
+        <v>24548</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>246</v>
+        <v>207</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>247</v>
+        <v>208</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>248</v>
+        <v>209</v>
       </c>
       <c r="H7" s="7">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="I7" s="7">
-        <v>45417</v>
+        <v>65470</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>249</v>
+        <v>210</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>228</v>
+        <v>211</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>250</v>
+        <v>212</v>
       </c>
       <c r="M7" s="7">
-        <v>58</v>
+        <v>83</v>
       </c>
       <c r="N7" s="7">
-        <v>61227</v>
+        <v>90017</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>251</v>
+        <v>213</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>252</v>
+        <v>214</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>253</v>
+        <v>215</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4139,49 +3638,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>523</v>
+        <v>925</v>
       </c>
       <c r="D8" s="7">
-        <v>542444</v>
+        <v>997883</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>254</v>
+        <v>216</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>255</v>
+        <v>217</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>256</v>
+        <v>218</v>
       </c>
       <c r="H8" s="7">
-        <v>509</v>
+        <v>920</v>
       </c>
       <c r="I8" s="7">
-        <v>514062</v>
+        <v>977443</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>257</v>
+        <v>219</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>258</v>
+        <v>220</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>237</v>
+        <v>221</v>
       </c>
       <c r="M8" s="7">
-        <v>1032</v>
+        <v>1845</v>
       </c>
       <c r="N8" s="7">
-        <v>1056506</v>
+        <v>1975327</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>259</v>
+        <v>222</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>260</v>
+        <v>223</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>261</v>
+        <v>224</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4190,10 +3689,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>539</v>
+        <v>951</v>
       </c>
       <c r="D9" s="7">
-        <v>558254</v>
+        <v>1022431</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -4205,10 +3704,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>551</v>
+        <v>977</v>
       </c>
       <c r="I9" s="7">
-        <v>559479</v>
+        <v>1042913</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -4220,10 +3719,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1090</v>
+        <v>1928</v>
       </c>
       <c r="N9" s="7">
-        <v>1117733</v>
+        <v>2065344</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -4243,49 +3742,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="D10" s="7">
-        <v>24548</v>
+        <v>17492</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>262</v>
+        <v>225</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>263</v>
+        <v>226</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>264</v>
+        <v>227</v>
       </c>
       <c r="H10" s="7">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="I10" s="7">
-        <v>65470</v>
+        <v>59155</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>265</v>
+        <v>228</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>266</v>
+        <v>229</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>267</v>
+        <v>230</v>
       </c>
       <c r="M10" s="7">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="N10" s="7">
-        <v>90017</v>
+        <v>76647</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>268</v>
+        <v>231</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>269</v>
+        <v>232</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>270</v>
+        <v>233</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4294,49 +3793,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>925</v>
+        <v>679</v>
       </c>
       <c r="D11" s="7">
-        <v>997883</v>
+        <v>742060</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>271</v>
+        <v>234</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>272</v>
+        <v>235</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>273</v>
+        <v>236</v>
       </c>
       <c r="H11" s="7">
-        <v>920</v>
+        <v>687</v>
       </c>
       <c r="I11" s="7">
-        <v>977443</v>
+        <v>725856</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>274</v>
+        <v>237</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>275</v>
+        <v>238</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>276</v>
+        <v>239</v>
       </c>
       <c r="M11" s="7">
-        <v>1845</v>
+        <v>1366</v>
       </c>
       <c r="N11" s="7">
-        <v>1975327</v>
+        <v>1467916</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>277</v>
+        <v>240</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>278</v>
+        <v>241</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>279</v>
+        <v>242</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4345,10 +3844,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>951</v>
+        <v>696</v>
       </c>
       <c r="D12" s="7">
-        <v>1022431</v>
+        <v>759552</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -4360,10 +3859,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>977</v>
+        <v>736</v>
       </c>
       <c r="I12" s="7">
-        <v>1042913</v>
+        <v>785011</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4375,10 +3874,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1928</v>
+        <v>1432</v>
       </c>
       <c r="N12" s="7">
-        <v>2065344</v>
+        <v>1544563</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4398,49 +3897,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D13" s="7">
-        <v>17492</v>
+        <v>16783</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>280</v>
+        <v>243</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>281</v>
+        <v>244</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>282</v>
+        <v>245</v>
       </c>
       <c r="H13" s="7">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="I13" s="7">
-        <v>59155</v>
+        <v>75983</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>283</v>
+        <v>246</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>32</v>
+        <v>247</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>284</v>
+        <v>248</v>
       </c>
       <c r="M13" s="7">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="N13" s="7">
-        <v>76647</v>
+        <v>92766</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>285</v>
+        <v>249</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>286</v>
+        <v>250</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>287</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4449,49 +3948,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>679</v>
+        <v>916</v>
       </c>
       <c r="D14" s="7">
-        <v>742060</v>
+        <v>920784</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>288</v>
+        <v>251</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>289</v>
+        <v>252</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>290</v>
+        <v>253</v>
       </c>
       <c r="H14" s="7">
-        <v>687</v>
+        <v>893</v>
       </c>
       <c r="I14" s="7">
-        <v>725856</v>
+        <v>967796</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>291</v>
+        <v>254</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>292</v>
+        <v>255</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>41</v>
+        <v>256</v>
       </c>
       <c r="M14" s="7">
-        <v>1366</v>
+        <v>1809</v>
       </c>
       <c r="N14" s="7">
-        <v>1467916</v>
+        <v>1888580</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>293</v>
+        <v>257</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>294</v>
+        <v>29</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>295</v>
+        <v>258</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4500,10 +3999,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>696</v>
+        <v>932</v>
       </c>
       <c r="D15" s="7">
-        <v>759552</v>
+        <v>937567</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4515,10 +4014,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>736</v>
+        <v>959</v>
       </c>
       <c r="I15" s="7">
-        <v>785011</v>
+        <v>1043779</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4530,10 +4029,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1432</v>
+        <v>1891</v>
       </c>
       <c r="N15" s="7">
-        <v>1544563</v>
+        <v>1981346</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -4547,55 +4046,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>16</v>
+        <v>82</v>
       </c>
       <c r="D16" s="7">
-        <v>16783</v>
+        <v>81712</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>296</v>
+        <v>259</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>297</v>
+        <v>260</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>298</v>
+        <v>261</v>
       </c>
       <c r="H16" s="7">
-        <v>66</v>
+        <v>221</v>
       </c>
       <c r="I16" s="7">
-        <v>75983</v>
+        <v>253123</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>13</v>
+        <v>92</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>299</v>
+        <v>210</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>300</v>
+        <v>262</v>
       </c>
       <c r="M16" s="7">
-        <v>82</v>
+        <v>303</v>
       </c>
       <c r="N16" s="7">
-        <v>92766</v>
+        <v>334835</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>301</v>
+        <v>263</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>302</v>
+        <v>264</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>303</v>
+        <v>265</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4604,49 +4103,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>916</v>
+        <v>3149</v>
       </c>
       <c r="D17" s="7">
-        <v>920784</v>
+        <v>3312638</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>304</v>
+        <v>266</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>305</v>
+        <v>267</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>306</v>
+        <v>268</v>
       </c>
       <c r="H17" s="7">
-        <v>893</v>
+        <v>3117</v>
       </c>
       <c r="I17" s="7">
-        <v>967796</v>
+        <v>3291419</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>22</v>
+        <v>101</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>307</v>
+        <v>269</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>308</v>
+        <v>219</v>
       </c>
       <c r="M17" s="7">
-        <v>1809</v>
+        <v>6266</v>
       </c>
       <c r="N17" s="7">
-        <v>1888580</v>
+        <v>6604057</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>309</v>
+        <v>270</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>310</v>
+        <v>271</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>311</v>
+        <v>272</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4655,10 +4154,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>932</v>
+        <v>3231</v>
       </c>
       <c r="D18" s="7">
-        <v>937567</v>
+        <v>3394350</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -4670,10 +4169,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>959</v>
+        <v>3338</v>
       </c>
       <c r="I18" s="7">
-        <v>1043779</v>
+        <v>3544542</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -4685,10 +4184,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1891</v>
+        <v>6569</v>
       </c>
       <c r="N18" s="7">
-        <v>1981346</v>
+        <v>6938892</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -4701,171 +4200,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>82</v>
-      </c>
-      <c r="D19" s="7">
-        <v>81712</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="H19" s="7">
-        <v>221</v>
-      </c>
-      <c r="I19" s="7">
-        <v>253123</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="M19" s="7">
-        <v>303</v>
-      </c>
-      <c r="N19" s="7">
-        <v>334835</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>3149</v>
-      </c>
-      <c r="D20" s="7">
-        <v>3312638</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="H20" s="7">
-        <v>3117</v>
-      </c>
-      <c r="I20" s="7">
-        <v>3291419</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="M20" s="7">
-        <v>6266</v>
-      </c>
-      <c r="N20" s="7">
-        <v>6604057</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3231</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3394350</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3338</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3544542</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>6569</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6938892</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>121</v>
+      <c r="A19" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4878,8 +4221,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6D34C18-5F66-4214-A9AE-05E05A19E159}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29932A7E-D077-4294-BE04-A75621A0E9A1}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4895,7 +4238,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>326</v>
+        <v>273</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4996,49 +4339,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="D4" s="7">
-        <v>2506</v>
+        <v>29751</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>327</v>
+        <v>249</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>328</v>
+        <v>274</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>329</v>
+        <v>275</v>
       </c>
       <c r="H4" s="7">
-        <v>32</v>
+        <v>144</v>
       </c>
       <c r="I4" s="7">
-        <v>14354</v>
+        <v>63753</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>330</v>
+        <v>276</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>331</v>
+        <v>277</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>332</v>
+        <v>278</v>
       </c>
       <c r="M4" s="7">
-        <v>36</v>
+        <v>189</v>
       </c>
       <c r="N4" s="7">
-        <v>16860</v>
+        <v>93503</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>333</v>
+        <v>279</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>334</v>
+        <v>280</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>335</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5047,49 +4390,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>114</v>
+        <v>685</v>
       </c>
       <c r="D5" s="7">
-        <v>99476</v>
+        <v>605690</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>336</v>
+        <v>257</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>337</v>
+        <v>281</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>338</v>
+        <v>282</v>
       </c>
       <c r="H5" s="7">
-        <v>210</v>
+        <v>1093</v>
       </c>
       <c r="I5" s="7">
-        <v>116056</v>
+        <v>611317</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>339</v>
+        <v>283</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>340</v>
+        <v>284</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>341</v>
+        <v>285</v>
       </c>
       <c r="M5" s="7">
-        <v>324</v>
+        <v>1778</v>
       </c>
       <c r="N5" s="7">
-        <v>215532</v>
+        <v>1217008</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>342</v>
+        <v>286</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>343</v>
+        <v>66</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>344</v>
+        <v>287</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5098,10 +4441,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>118</v>
+        <v>730</v>
       </c>
       <c r="D6" s="7">
-        <v>101982</v>
+        <v>635441</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -5113,10 +4456,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>242</v>
+        <v>1237</v>
       </c>
       <c r="I6" s="7">
-        <v>130410</v>
+        <v>675070</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -5128,10 +4471,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>360</v>
+        <v>1967</v>
       </c>
       <c r="N6" s="7">
-        <v>232392</v>
+        <v>1310511</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -5151,49 +4494,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="D7" s="7">
-        <v>28641</v>
+        <v>36779</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>345</v>
+        <v>288</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>213</v>
+        <v>289</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>346</v>
+        <v>290</v>
       </c>
       <c r="H7" s="7">
-        <v>112</v>
+        <v>158</v>
       </c>
       <c r="I7" s="7">
-        <v>54022</v>
+        <v>81531</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>347</v>
+        <v>291</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>348</v>
+        <v>292</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>349</v>
+        <v>293</v>
       </c>
       <c r="M7" s="7">
-        <v>153</v>
+        <v>215</v>
       </c>
       <c r="N7" s="7">
-        <v>82664</v>
+        <v>118309</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>95</v>
+        <v>294</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>350</v>
+        <v>295</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>351</v>
+        <v>296</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5202,49 +4545,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>571</v>
+        <v>906</v>
       </c>
       <c r="D8" s="7">
-        <v>521182</v>
+        <v>1154764</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>352</v>
+        <v>297</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>353</v>
+        <v>298</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>220</v>
+        <v>299</v>
       </c>
       <c r="H8" s="7">
-        <v>883</v>
+        <v>1354</v>
       </c>
       <c r="I8" s="7">
-        <v>538533</v>
+        <v>873925</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>354</v>
+        <v>300</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>355</v>
+        <v>301</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>356</v>
+        <v>302</v>
       </c>
       <c r="M8" s="7">
-        <v>1454</v>
+        <v>2260</v>
       </c>
       <c r="N8" s="7">
-        <v>1059714</v>
+        <v>2028690</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>104</v>
+        <v>303</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>357</v>
+        <v>304</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>358</v>
+        <v>305</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5253,10 +4596,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>612</v>
+        <v>963</v>
       </c>
       <c r="D9" s="7">
-        <v>549823</v>
+        <v>1191543</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -5268,10 +4611,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>995</v>
+        <v>1512</v>
       </c>
       <c r="I9" s="7">
-        <v>592555</v>
+        <v>955456</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -5283,10 +4626,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1607</v>
+        <v>2475</v>
       </c>
       <c r="N9" s="7">
-        <v>1142378</v>
+        <v>2146999</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -5306,49 +4649,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="D10" s="7">
-        <v>39783</v>
+        <v>31290</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>359</v>
+        <v>306</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>123</v>
+        <v>307</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>360</v>
+        <v>308</v>
       </c>
       <c r="H10" s="7">
-        <v>158</v>
+        <v>96</v>
       </c>
       <c r="I10" s="7">
-        <v>89591</v>
+        <v>58114</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>361</v>
+        <v>309</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>362</v>
+        <v>310</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>363</v>
+        <v>311</v>
       </c>
       <c r="M10" s="7">
-        <v>215</v>
+        <v>134</v>
       </c>
       <c r="N10" s="7">
-        <v>129374</v>
+        <v>89405</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>364</v>
+        <v>86</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>270</v>
+        <v>312</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>365</v>
+        <v>313</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5357,49 +4700,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>906</v>
+        <v>635</v>
       </c>
       <c r="D11" s="7">
-        <v>998149</v>
+        <v>670531</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>366</v>
+        <v>314</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>367</v>
+        <v>315</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>132</v>
+        <v>316</v>
       </c>
       <c r="H11" s="7">
-        <v>1354</v>
+        <v>947</v>
       </c>
       <c r="I11" s="7">
-        <v>966977</v>
+        <v>873565</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>368</v>
+        <v>317</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>369</v>
+        <v>318</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>370</v>
+        <v>319</v>
       </c>
       <c r="M11" s="7">
-        <v>2260</v>
+        <v>1582</v>
       </c>
       <c r="N11" s="7">
-        <v>1965127</v>
+        <v>1544095</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>371</v>
+        <v>94</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>372</v>
+        <v>320</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>278</v>
+        <v>321</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5408,10 +4751,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>963</v>
+        <v>673</v>
       </c>
       <c r="D12" s="7">
-        <v>1037932</v>
+        <v>701821</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -5423,10 +4766,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>1512</v>
+        <v>1043</v>
       </c>
       <c r="I12" s="7">
-        <v>1056568</v>
+        <v>931679</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -5438,10 +4781,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>2475</v>
+        <v>1716</v>
       </c>
       <c r="N12" s="7">
-        <v>2094501</v>
+        <v>1633500</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -5461,49 +4804,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="D13" s="7">
-        <v>33010</v>
+        <v>41088</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>373</v>
+        <v>322</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>374</v>
+        <v>323</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>375</v>
+        <v>324</v>
       </c>
       <c r="H13" s="7">
-        <v>96</v>
+        <v>161</v>
       </c>
       <c r="I13" s="7">
-        <v>63215</v>
+        <v>99283</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>95</v>
+        <v>325</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>376</v>
+        <v>326</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>377</v>
+        <v>327</v>
       </c>
       <c r="M13" s="7">
-        <v>134</v>
+        <v>213</v>
       </c>
       <c r="N13" s="7">
-        <v>96225</v>
+        <v>140370</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>36</v>
+        <v>328</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>378</v>
+        <v>329</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>379</v>
+        <v>330</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5512,49 +4855,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>635</v>
+        <v>953</v>
       </c>
       <c r="D14" s="7">
-        <v>692709</v>
+        <v>884687</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>380</v>
+        <v>331</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>381</v>
+        <v>332</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>382</v>
+        <v>333</v>
       </c>
       <c r="H14" s="7">
-        <v>947</v>
+        <v>1396</v>
       </c>
       <c r="I14" s="7">
-        <v>809335</v>
+        <v>991171</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>104</v>
+        <v>334</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>383</v>
+        <v>335</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>384</v>
+        <v>336</v>
       </c>
       <c r="M14" s="7">
-        <v>1582</v>
+        <v>2349</v>
       </c>
       <c r="N14" s="7">
-        <v>1502044</v>
+        <v>1875859</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>46</v>
+        <v>337</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>385</v>
+        <v>338</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>386</v>
+        <v>339</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5563,10 +4906,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>673</v>
+        <v>1005</v>
       </c>
       <c r="D15" s="7">
-        <v>725719</v>
+        <v>925775</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -5578,10 +4921,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>1043</v>
+        <v>1557</v>
       </c>
       <c r="I15" s="7">
-        <v>872550</v>
+        <v>1090454</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -5593,10 +4936,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1716</v>
+        <v>2562</v>
       </c>
       <c r="N15" s="7">
-        <v>1598269</v>
+        <v>2016229</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -5610,55 +4953,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>52</v>
+        <v>192</v>
       </c>
       <c r="D16" s="7">
-        <v>43434</v>
+        <v>138907</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>387</v>
+        <v>340</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>235</v>
+        <v>172</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>388</v>
+        <v>341</v>
       </c>
       <c r="H16" s="7">
-        <v>161</v>
+        <v>559</v>
       </c>
       <c r="I16" s="7">
-        <v>113226</v>
+        <v>302680</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>389</v>
+        <v>57</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>390</v>
+        <v>342</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>391</v>
+        <v>55</v>
       </c>
       <c r="M16" s="7">
-        <v>213</v>
+        <v>751</v>
       </c>
       <c r="N16" s="7">
-        <v>156659</v>
+        <v>441588</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>145</v>
+        <v>233</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>392</v>
+        <v>343</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>215</v>
+        <v>344</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5667,49 +5010,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>953</v>
+        <v>3179</v>
       </c>
       <c r="D17" s="7">
-        <v>920866</v>
+        <v>3315673</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>393</v>
+        <v>345</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>394</v>
+        <v>346</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>245</v>
+        <v>180</v>
       </c>
       <c r="H17" s="7">
-        <v>1396</v>
+        <v>4790</v>
       </c>
       <c r="I17" s="7">
-        <v>1032152</v>
+        <v>3349979</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>395</v>
+        <v>66</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>396</v>
+        <v>65</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>397</v>
+        <v>347</v>
       </c>
       <c r="M17" s="7">
-        <v>2349</v>
+        <v>7969</v>
       </c>
       <c r="N17" s="7">
-        <v>1953019</v>
+        <v>6665651</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>155</v>
+        <v>241</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>224</v>
+        <v>348</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>398</v>
+        <v>349</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5718,10 +5061,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>1005</v>
+        <v>3371</v>
       </c>
       <c r="D18" s="7">
-        <v>964300</v>
+        <v>3454580</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -5733,10 +5076,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>1557</v>
+        <v>5349</v>
       </c>
       <c r="I18" s="7">
-        <v>1145378</v>
+        <v>3652659</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -5748,10 +5091,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>2562</v>
+        <v>8720</v>
       </c>
       <c r="N18" s="7">
-        <v>2109678</v>
+        <v>7107239</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -5764,171 +5107,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>192</v>
-      </c>
-      <c r="D19" s="7">
-        <v>147374</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>399</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>400</v>
-      </c>
-      <c r="H19" s="7">
-        <v>559</v>
-      </c>
-      <c r="I19" s="7">
-        <v>334408</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>401</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>402</v>
-      </c>
-      <c r="M19" s="7">
-        <v>751</v>
-      </c>
-      <c r="N19" s="7">
-        <v>481781</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>403</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>404</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>3179</v>
-      </c>
-      <c r="D20" s="7">
-        <v>3232382</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>406</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>407</v>
-      </c>
-      <c r="H20" s="7">
-        <v>4790</v>
-      </c>
-      <c r="I20" s="7">
-        <v>3463054</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>408</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>409</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="M20" s="7">
-        <v>7969</v>
-      </c>
-      <c r="N20" s="7">
-        <v>6695437</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>410</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>411</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3371</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3379756</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>5349</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3797462</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>8720</v>
-      </c>
-      <c r="N21" s="7">
-        <v>7177218</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>121</v>
+      <c r="A19" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
